--- a/ARISE/ARISE(D)-OneWay-Wendorf.xlsx
+++ b/ARISE/ARISE(D)-OneWay-Wendorf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\GitHub\BASE\ARISE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\Research\Statistics\BASE\ARISE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{9D2553DE-ABEB-4FBB-8C7A-9E7E5C341B9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4A48277D-2C72-4012-9680-4BBE7D2450D8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD32313-8B76-407D-8C80-FFCF946ECF37}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21645" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="19" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="109">
   <si>
     <t>Group</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Background Calculations</t>
   </si>
   <si>
-    <t>Design: Single-factor, between-subjects.</t>
-  </si>
-  <si>
     <t>Separate versions of the file can be saved for different data sets.</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>Use of this Module</t>
   </si>
   <si>
-    <t>Email: cwendorf@uwsp.edu</t>
-  </si>
-  <si>
     <t>University of Wisconsin - Stevens Point</t>
   </si>
   <si>
@@ -266,9 +260,6 @@
     <t>Analysis of Variance from the Summary Statistics</t>
   </si>
   <si>
-    <t>How to Cite this Module</t>
-  </si>
-  <si>
     <t>Overview of ARISE</t>
   </si>
   <si>
@@ -323,15 +314,6 @@
     <t>Version: 2.20191030</t>
   </si>
   <si>
-    <t>https://github.com/cwendorf/BASE</t>
-  </si>
-  <si>
-    <t>ARISE: Arelational and Relational Interval Statistics with Excel.</t>
-  </si>
-  <si>
-    <t>Available at https://github.com/cwendorf/BASE</t>
-  </si>
-  <si>
     <t>This module uses raw data as input.</t>
   </si>
   <si>
@@ -371,7 +353,22 @@
     <t>This workbook also provides null hypothesis significance tests for pairwise comparisons.</t>
   </si>
   <si>
-    <t>Wendorf, C. A. (2014).</t>
+    <t>https://github.com/cwendorf/BASE/tree/master/ARISE</t>
+  </si>
+  <si>
+    <t>cwendorf@uwsp.edu</t>
+  </si>
+  <si>
+    <t>How to Cite</t>
+  </si>
+  <si>
+    <t>Wendorf, C. A. (2016).</t>
+  </si>
+  <si>
+    <t>ARISE: Arelational and Relational Interval Statistics with Excel [Excel Spreadsheet].</t>
+  </si>
+  <si>
+    <t>Retrieved from https://github.com/cwendorf/BASE/tree/master/ARISE</t>
   </si>
 </sst>
 </file>
@@ -488,16 +485,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
       <sz val="14"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="14"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -764,7 +760,7 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection hidden="1"/>
@@ -875,9 +871,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1093,7 +1086,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1204,6 +1197,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1212,11 +1211,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -3462,107 +3461,107 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.578125" customWidth="1"/>
-    <col min="9" max="10" width="4.578125" customWidth="1"/>
-    <col min="18" max="19" width="4.578125" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="9" max="10" width="4.5703125" customWidth="1"/>
+    <col min="18" max="19" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="106"/>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-    </row>
-    <row r="2" spans="1:17" s="108" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="149" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="150" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150"/>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="150"/>
-    </row>
-    <row r="3" spans="1:17" s="108" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A3" s="106"/>
-      <c r="B3" s="151" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="151" t="s">
-        <v>92</v>
-      </c>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="151"/>
-    </row>
-    <row r="4" spans="1:17" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="112"/>
-      <c r="B4" s="151" t="s">
+    <row r="1" spans="1:17" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+    </row>
+    <row r="2" spans="1:17" s="107" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="150" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="152" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="151"/>
-      <c r="M4" s="151"/>
-      <c r="N4" s="151"/>
-      <c r="O4" s="151"/>
-      <c r="P4" s="151"/>
-      <c r="Q4" s="151"/>
-    </row>
-    <row r="5" spans="1:17" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="106"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+    </row>
+    <row r="3" spans="1:17" s="107" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="105"/>
+      <c r="B3" s="152" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="152" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="152"/>
+      <c r="P3" s="152"/>
+      <c r="Q3" s="152"/>
+    </row>
+    <row r="4" spans="1:17" s="112" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="111"/>
+      <c r="B4" s="152" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="153" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="152"/>
+      <c r="M4" s="152"/>
+      <c r="N4" s="152"/>
+      <c r="O4" s="152"/>
+      <c r="P4" s="152"/>
+      <c r="Q4" s="152"/>
+    </row>
+    <row r="5" spans="1:17" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="105"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
@@ -3573,11 +3572,11 @@
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
       <c r="K6" s="28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="110"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="109"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -3589,10 +3588,10 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="110"/>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="109"/>
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3603,13 +3602,13 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="110"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="109"/>
       <c r="B9" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3620,13 +3619,13 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="110"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="109"/>
       <c r="B10" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3637,11 +3636,11 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="110"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="109"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
@@ -3649,10 +3648,10 @@
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="110"/>
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="109"/>
       <c r="B12" s="28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
@@ -3661,11 +3660,11 @@
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="K12" s="28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="110"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="109"/>
       <c r="B13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
@@ -3673,49 +3672,49 @@
       <c r="H13" s="33"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="110"/>
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="109"/>
       <c r="B14" s="33" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="K14" s="33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="110"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="109"/>
       <c r="B15" s="33" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="K15" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="110"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="109"/>
       <c r="B16" s="33" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
-      <c r="K16" s="111" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K16" s="110" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="33" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
@@ -3724,11 +3723,11 @@
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
       <c r="K17" s="36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="110"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="109"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
@@ -3736,21 +3735,21 @@
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
       <c r="K18" s="36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="110"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="109"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="110"/>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="109"/>
       <c r="B20" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
@@ -3758,12 +3757,12 @@
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
-      <c r="K20" s="28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="110"/>
+      <c r="K20" s="149" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="109"/>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
@@ -3773,13 +3772,13 @@
       <c r="H21" s="33"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="110"/>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="109"/>
       <c r="B22" s="33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
@@ -3787,99 +3786,96 @@
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
       <c r="K22" s="33" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="110"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="109"/>
       <c r="B23" s="33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
-      <c r="K23" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K23" s="33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
-      <c r="K24" s="36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="110"/>
+      <c r="K24" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="109"/>
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
-      <c r="K25" s="33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="110"/>
-    </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="110"/>
-      <c r="B27" s="28" t="s">
-        <v>29</v>
-      </c>
+      <c r="K25" s="122" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="109"/>
+      <c r="K26" s="122" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="109"/>
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
-      <c r="K27" s="28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="110"/>
-      <c r="B28" s="33"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="109"/>
+      <c r="B28" s="28" t="s">
+        <v>28</v>
+      </c>
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
-      <c r="K28" s="33"/>
-    </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="110"/>
-      <c r="B29" s="33" t="s">
-        <v>28</v>
-      </c>
+      <c r="K28" s="149" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="109"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="33"/>
       <c r="G29" s="33"/>
       <c r="H29" s="33"/>
-      <c r="K29" s="33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K29" s="33"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="33" t="s">
         <v>27</v>
       </c>
@@ -3890,30 +3886,31 @@
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
       <c r="K30" s="33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="33"/>
-      <c r="K31" s="33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K31" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="33" t="s">
+        <v>25</v>
+      </c>
       <c r="K32" s="33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K33" s="123" t="s">
-        <v>86</v>
-      </c>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K33" s="122"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection sheet="1" selectLockedCells="1"/>
   <mergeCells count="6">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="K2:Q2"/>
@@ -3924,10 +3921,11 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K33" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K26" r:id="rId2" xr:uid="{FEA5591E-2494-47BC-B26F-FEA592DE5DEB}"/>
+    <hyperlink ref="K25" r:id="rId3" xr:uid="{CDB77EEF-426A-4C4C-AEB0-BB2BB106DDFF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
   <headerFooter>
     <oddHeader>&amp;LArelational and Relational Intervals with Excel (ARISE)&amp;RDesign: Single Factor, Between-Subjects</oddHeader>
   </headerFooter>
@@ -3942,60 +3940,60 @@
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.26171875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.68359375" style="39" customWidth="1"/>
-    <col min="2" max="8" width="11.26171875" style="39"/>
-    <col min="9" max="10" width="4.68359375" style="39" customWidth="1"/>
-    <col min="11" max="13" width="11.26171875" style="40"/>
-    <col min="14" max="17" width="11.26171875" style="39"/>
-    <col min="18" max="18" width="4.68359375" style="39" customWidth="1"/>
-    <col min="19" max="19" width="4.68359375" style="39" hidden="1" customWidth="1"/>
-    <col min="20" max="26" width="0" style="39" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.68359375" style="39" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="4.68359375" style="39" customWidth="1"/>
-    <col min="29" max="16384" width="11.26171875" style="39"/>
+    <col min="1" max="1" width="4.7109375" style="38" customWidth="1"/>
+    <col min="2" max="8" width="11.28515625" style="38"/>
+    <col min="9" max="10" width="4.7109375" style="38" customWidth="1"/>
+    <col min="11" max="13" width="11.28515625" style="39"/>
+    <col min="14" max="17" width="11.28515625" style="38"/>
+    <col min="18" max="18" width="4.7109375" style="38" customWidth="1"/>
+    <col min="19" max="19" width="4.7109375" style="38" hidden="1" customWidth="1"/>
+    <col min="20" max="26" width="0" style="38" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="4.7109375" style="38" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="4.7109375" style="38" customWidth="1"/>
+    <col min="29" max="16384" width="11.28515625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K1" s="91"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
+    <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="90"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
       <c r="T1"/>
       <c r="U1"/>
       <c r="V1"/>
       <c r="W1"/>
     </row>
-    <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="162" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="K2" s="162" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="T2" s="162" t="s">
+    <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="163" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="K2" s="163" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="163"/>
+      <c r="T2" s="163" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="162"/>
-      <c r="V2" s="162"/>
-      <c r="W2" s="162"/>
-      <c r="X2" s="162"/>
-      <c r="Y2" s="162"/>
-      <c r="Z2" s="162"/>
-    </row>
-    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="U2" s="163"/>
+      <c r="V2" s="163"/>
+      <c r="W2" s="163"/>
+      <c r="X2" s="163"/>
+      <c r="Y2" s="163"/>
+      <c r="Z2" s="163"/>
+    </row>
+    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K3" s="35"/>
       <c r="L3" s="35"/>
       <c r="M3" s="35"/>
@@ -4011,23 +4009,23 @@
       <c r="Y3" s="35"/>
       <c r="Z3" s="35"/>
     </row>
-    <row r="4" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="K4" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
+    <row r="4" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="K4" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
       <c r="T4" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
@@ -4036,17 +4034,17 @@
       <c r="Y4"/>
       <c r="Z4"/>
     </row>
-    <row r="5" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
+    <row r="5" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
@@ -4055,24 +4053,24 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="K6" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="89" t="str">
+    <row r="6" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="K6" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="88" t="str">
         <f>IF(B19="","",B19)</f>
         <v>Manipulation</v>
       </c>
-      <c r="M6" s="89" t="str">
+      <c r="M6" s="88" t="str">
         <f>IF(B20="","",B20)</f>
         <v>Outcome</v>
       </c>
@@ -4091,26 +4089,26 @@
       <c r="X6" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Y6" s="88"/>
-      <c r="Z6" s="88"/>
-    </row>
-    <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="163" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="K7" s="41">
+      <c r="Y6" s="87"/>
+      <c r="Z6" s="87"/>
+    </row>
+    <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="164" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="K7" s="40">
         <v>1</v>
       </c>
-      <c r="L7" s="41">
+      <c r="L7" s="40">
         <v>1</v>
       </c>
-      <c r="M7" s="40">
+      <c r="M7" s="39">
         <v>61</v>
       </c>
       <c r="S7" s="2"/>
@@ -4125,7 +4123,7 @@
         <f t="array" ref="V7">IFERROR(STDEV(IF($L:$L=$T7,$M:$M)),"")</f>
         <v>4.2946995755750415</v>
       </c>
-      <c r="W7" s="87">
+      <c r="W7" s="86">
         <f>IF(COUNTIF($L:$L,$T7)&lt;1,"",COUNTIF($L:$L,$T7))</f>
         <v>10</v>
       </c>
@@ -4133,188 +4131,188 @@
         <f t="shared" ref="X7:X12" si="0">IFERROR(V7/SQRT(W7),"")</f>
         <v>1.3581032524975574</v>
       </c>
-      <c r="Y7" s="86"/>
-      <c r="Z7" s="86"/>
-    </row>
-    <row r="8" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="164"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164"/>
-      <c r="K8" s="40">
+      <c r="Y7" s="85"/>
+      <c r="Z7" s="85"/>
+    </row>
+    <row r="8" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="165"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
+      <c r="K8" s="39">
         <v>2</v>
       </c>
-      <c r="L8" s="40">
+      <c r="L8" s="39">
         <v>1</v>
       </c>
-      <c r="M8" s="40">
+      <c r="M8" s="39">
         <v>64</v>
       </c>
       <c r="S8" s="2"/>
-      <c r="T8" s="82">
+      <c r="T8" s="81">
         <v>2</v>
       </c>
-      <c r="U8" s="80">
+      <c r="U8" s="79">
         <f>IFERROR(AVERAGEIFS($M:$M,$L:$L,$T8),"")</f>
         <v>71</v>
       </c>
-      <c r="V8" s="80">
+      <c r="V8" s="79">
         <f t="array" ref="V8">IFERROR(STDEV(IF($L:$L=$T8,$M:$M)),"")</f>
         <v>5.3748384988656994</v>
       </c>
-      <c r="W8" s="81">
+      <c r="W8" s="80">
         <f>IF(COUNTIF($L:$L,$T8)&lt;1,"",COUNTIF($L:$L,$T8))</f>
         <v>10</v>
       </c>
-      <c r="X8" s="57">
+      <c r="X8" s="56">
         <f t="shared" si="0"/>
         <v>1.6996731711975948</v>
       </c>
-      <c r="Y8" s="79"/>
-      <c r="Z8" s="79"/>
-    </row>
-    <row r="9" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="K9" s="40">
+      <c r="Y8" s="78"/>
+      <c r="Z8" s="78"/>
+    </row>
+    <row r="9" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="K9" s="39">
         <v>3</v>
       </c>
-      <c r="L9" s="40">
+      <c r="L9" s="39">
         <v>1</v>
       </c>
-      <c r="M9" s="40">
+      <c r="M9" s="39">
         <v>72</v>
       </c>
       <c r="S9" s="2"/>
-      <c r="T9" s="82">
+      <c r="T9" s="81">
         <v>3</v>
       </c>
-      <c r="U9" s="80">
+      <c r="U9" s="79">
         <f>IFERROR(AVERAGEIFS($M:$M,$L:$L,$T9),"")</f>
         <v>72.5</v>
       </c>
-      <c r="V9" s="80">
+      <c r="V9" s="79">
         <f t="array" ref="V9">IFERROR(STDEV(IF($L:$L=$T9,$M:$M)),"")</f>
         <v>4.85912657903775</v>
       </c>
-      <c r="W9" s="81">
+      <c r="W9" s="80">
         <f>IF(COUNTIF($L:$L,$T9)&lt;1,"",COUNTIF($L:$L,$T9))</f>
         <v>10</v>
       </c>
-      <c r="X9" s="57">
+      <c r="X9" s="56">
         <f t="shared" si="0"/>
         <v>1.5365907428821477</v>
       </c>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="79"/>
-    </row>
-    <row r="10" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="K10" s="40">
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="78"/>
+    </row>
+    <row r="10" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="K10" s="39">
         <v>4</v>
       </c>
-      <c r="L10" s="40">
+      <c r="L10" s="39">
         <v>1</v>
       </c>
-      <c r="M10" s="40">
+      <c r="M10" s="39">
         <v>64</v>
       </c>
       <c r="S10" s="2"/>
-      <c r="T10" s="82">
+      <c r="T10" s="81">
         <v>4</v>
       </c>
-      <c r="U10" s="80">
+      <c r="U10" s="79">
         <f>IFERROR(AVERAGEIFS($M:$M,$L:$L,$T10),"")</f>
         <v>76</v>
       </c>
-      <c r="V10" s="80">
+      <c r="V10" s="79">
         <f t="array" ref="V10">IFERROR(STDEV(IF($L:$L=$T10,$M:$M)),"")</f>
         <v>6.5828058860438334</v>
       </c>
-      <c r="W10" s="81">
+      <c r="W10" s="80">
         <f>IF(COUNTIF($L:$L,$T10)&lt;1,"",COUNTIF($L:$L,$T10))</f>
         <v>10</v>
       </c>
-      <c r="X10" s="57">
+      <c r="X10" s="56">
         <f t="shared" si="0"/>
         <v>2.0816659994661326</v>
       </c>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="79"/>
-    </row>
-    <row r="11" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="165" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="165"/>
-      <c r="D11" s="165"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="165"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="165"/>
-      <c r="K11" s="40">
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="78"/>
+    </row>
+    <row r="11" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="166" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="166"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="166"/>
+      <c r="K11" s="39">
         <v>5</v>
       </c>
-      <c r="L11" s="40">
+      <c r="L11" s="39">
         <v>1</v>
       </c>
-      <c r="M11" s="40">
+      <c r="M11" s="39">
         <v>64</v>
       </c>
       <c r="S11" s="2"/>
-      <c r="T11" s="82">
+      <c r="T11" s="81">
         <v>5</v>
       </c>
-      <c r="U11" s="80">
+      <c r="U11" s="79">
         <f>IFERROR(AVERAGEIFS($M:$M,$L:$L,$T11),"")</f>
         <v>65.5</v>
       </c>
-      <c r="V11" s="80">
+      <c r="V11" s="79">
         <f t="array" ref="V11">IFERROR(STDEV(IF($L:$L=$T11,$M:$M)),"")</f>
         <v>4.9721446300587662</v>
       </c>
-      <c r="W11" s="81">
+      <c r="W11" s="80">
         <f>IF(COUNTIF($L:$L,$T11)&lt;1,"",COUNTIF($L:$L,$T11))</f>
         <v>10</v>
       </c>
-      <c r="X11" s="57">
+      <c r="X11" s="56">
         <f t="shared" si="0"/>
         <v>1.5723301886761005</v>
       </c>
-      <c r="Y11" s="79"/>
-      <c r="Z11" s="79"/>
-    </row>
-    <row r="12" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="166"/>
-      <c r="C12" s="166"/>
-      <c r="D12" s="166"/>
-      <c r="E12" s="166"/>
-      <c r="F12" s="166"/>
-      <c r="G12" s="166"/>
-      <c r="H12" s="166"/>
-      <c r="K12" s="40">
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="78"/>
+    </row>
+    <row r="12" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="167"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="167"/>
+      <c r="F12" s="167"/>
+      <c r="G12" s="167"/>
+      <c r="H12" s="167"/>
+      <c r="K12" s="39">
         <v>6</v>
       </c>
-      <c r="L12" s="40">
+      <c r="L12" s="39">
         <v>1</v>
       </c>
-      <c r="M12" s="40">
+      <c r="M12" s="39">
         <v>70</v>
       </c>
       <c r="T12" s="20" t="s">
@@ -4328,7 +4326,7 @@
         <f>IFERROR(STDEV($M:$M),"")</f>
         <v>6.337449432233953</v>
       </c>
-      <c r="W12" s="78">
+      <c r="W12" s="77">
         <f>IFERROR(COUNT($L:$L),"")</f>
         <v>50</v>
       </c>
@@ -4336,24 +4334,24 @@
         <f t="shared" si="0"/>
         <v>0.89625069379189271</v>
       </c>
-      <c r="Y12" s="77"/>
-      <c r="Z12" s="77"/>
-    </row>
-    <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="166"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="166"/>
-      <c r="E13" s="166"/>
-      <c r="F13" s="166"/>
-      <c r="G13" s="166"/>
-      <c r="H13" s="166"/>
-      <c r="K13" s="40">
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="76"/>
+    </row>
+    <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="167"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="167"/>
+      <c r="K13" s="39">
         <v>7</v>
       </c>
-      <c r="L13" s="40">
+      <c r="L13" s="39">
         <v>1</v>
       </c>
-      <c r="M13" s="40">
+      <c r="M13" s="39">
         <v>73</v>
       </c>
       <c r="S13" s="2"/>
@@ -4362,46 +4360,46 @@
       <c r="V13" s="24"/>
       <c r="W13" s="24"/>
       <c r="X13" s="24"/>
-      <c r="Y13" s="76"/>
-      <c r="Z13" s="76"/>
-    </row>
-    <row r="14" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B14" s="167"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="167"/>
-      <c r="K14" s="40">
+      <c r="Y13" s="75"/>
+      <c r="Z13" s="75"/>
+    </row>
+    <row r="14" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="168"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="168"/>
+      <c r="E14" s="168"/>
+      <c r="F14" s="168"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="168"/>
+      <c r="K14" s="39">
         <v>8</v>
       </c>
-      <c r="L14" s="40">
+      <c r="L14" s="39">
         <v>1</v>
       </c>
-      <c r="M14" s="40">
+      <c r="M14" s="39">
         <v>65</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="K15" s="40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="K15" s="39">
         <v>9</v>
       </c>
-      <c r="L15" s="40">
+      <c r="L15" s="39">
         <v>1</v>
       </c>
-      <c r="M15" s="40">
+      <c r="M15" s="39">
         <v>65</v>
       </c>
       <c r="S15" s="3"/>
@@ -4409,31 +4407,31 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-      <c r="Y15" s="69"/>
-      <c r="Z15" s="68"/>
-    </row>
-    <row r="16" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B16" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="72"/>
-      <c r="K16" s="40">
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="67"/>
+    </row>
+    <row r="16" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="70"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="71"/>
+      <c r="K16" s="39">
         <v>10</v>
       </c>
-      <c r="L16" s="40">
+      <c r="L16" s="39">
         <v>1</v>
       </c>
-      <c r="M16" s="40">
+      <c r="M16" s="39">
         <v>72</v>
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U16" s="23"/>
       <c r="V16" s="23">
@@ -4452,176 +4450,176 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="K17" s="40">
+    <row r="17" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="K17" s="39">
         <v>11</v>
       </c>
-      <c r="L17" s="40">
+      <c r="L17" s="39">
         <v>2</v>
       </c>
-      <c r="M17" s="40">
+      <c r="M17" s="39">
         <v>69</v>
       </c>
-      <c r="T17" s="116"/>
-      <c r="U17" s="66"/>
-      <c r="V17" s="46">
+      <c r="T17" s="115"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="45">
         <v>1</v>
       </c>
-      <c r="W17" s="65"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="64"/>
-    </row>
-    <row r="18" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B18" s="168" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="168"/>
-      <c r="D18" s="67" t="s">
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="63"/>
+    </row>
+    <row r="18" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="169" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18" s="40">
+      <c r="C18" s="169"/>
+      <c r="D18" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="39">
         <v>12</v>
       </c>
-      <c r="L18" s="40">
+      <c r="L18" s="39">
         <v>2</v>
       </c>
-      <c r="M18" s="40">
+      <c r="M18" s="39">
         <v>74</v>
       </c>
-      <c r="T18" s="82"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="57">
+      <c r="T18" s="81"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56">
         <v>1</v>
       </c>
-      <c r="X18" s="60"/>
-      <c r="Y18" s="60"/>
-      <c r="Z18" s="56"/>
-    </row>
-    <row r="19" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="159" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="159"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="59"/>
-      <c r="K19" s="40">
+      <c r="X18" s="59"/>
+      <c r="Y18" s="59"/>
+      <c r="Z18" s="55"/>
+    </row>
+    <row r="19" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="160" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="160"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="58"/>
+      <c r="K19" s="39">
         <v>13</v>
       </c>
-      <c r="L19" s="40">
+      <c r="L19" s="39">
         <v>2</v>
       </c>
-      <c r="M19" s="40">
+      <c r="M19" s="39">
         <v>79</v>
       </c>
       <c r="S19" s="2"/>
-      <c r="T19" s="82"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="57"/>
-      <c r="X19" s="57">
+      <c r="T19" s="81"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56">
         <v>1</v>
       </c>
-      <c r="Y19" s="60"/>
-      <c r="Z19" s="56"/>
-    </row>
-    <row r="20" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B20" s="156" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="156"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="51"/>
-      <c r="K20" s="40">
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="55"/>
+    </row>
+    <row r="20" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="157" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="157"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="50"/>
+      <c r="K20" s="39">
         <v>14</v>
       </c>
-      <c r="L20" s="40">
+      <c r="L20" s="39">
         <v>2</v>
       </c>
-      <c r="M20" s="40">
+      <c r="M20" s="39">
         <v>69</v>
       </c>
       <c r="S20" s="2"/>
-      <c r="T20" s="82"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="57">
+      <c r="T20" s="81"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56">
         <v>1</v>
       </c>
-      <c r="Z20" s="56"/>
-    </row>
-    <row r="21" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="K21" s="40">
+      <c r="Z20" s="55"/>
+    </row>
+    <row r="21" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="K21" s="39">
         <v>15</v>
       </c>
-      <c r="L21" s="40">
+      <c r="L21" s="39">
         <v>2</v>
       </c>
-      <c r="M21" s="40">
+      <c r="M21" s="39">
         <v>64</v>
       </c>
       <c r="S21" s="2"/>
-      <c r="T21" s="117"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54">
+      <c r="T21" s="116"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="53">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B22" s="168" t="str">
+    <row r="22" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="169" t="str">
         <f>IF(B19="","Factor",B19)</f>
         <v>Manipulation</v>
       </c>
-      <c r="C22" s="168"/>
-      <c r="D22" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22" s="40">
+      <c r="C22" s="169"/>
+      <c r="D22" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="39">
         <v>16</v>
       </c>
-      <c r="L22" s="40">
+      <c r="L22" s="39">
         <v>2</v>
       </c>
-      <c r="M22" s="40">
+      <c r="M22" s="39">
         <v>64</v>
       </c>
       <c r="S22" s="2"/>
@@ -4633,90 +4631,90 @@
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
     </row>
-    <row r="23" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B23" s="159" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="160"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="59">
+    <row r="23" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="160" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="161"/>
+      <c r="D23" s="162"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="58">
         <f>IF(B23="","",1)</f>
         <v>1</v>
       </c>
-      <c r="K23" s="40">
+      <c r="K23" s="39">
         <v>17</v>
       </c>
-      <c r="L23" s="40">
+      <c r="L23" s="39">
         <v>2</v>
       </c>
-      <c r="M23" s="40">
+      <c r="M23" s="39">
         <v>69</v>
       </c>
       <c r="S23" s="2"/>
-      <c r="T23" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="47"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="47"/>
+      <c r="T23" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46"/>
       <c r="Z23" s="29"/>
     </row>
-    <row r="24" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B24" s="153" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="153"/>
-      <c r="D24" s="154"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="53">
+    <row r="24" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="154" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="154"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="52">
         <f>IF(B24="","",2)</f>
         <v>2</v>
       </c>
-      <c r="K24" s="40">
+      <c r="K24" s="39">
         <v>18</v>
       </c>
-      <c r="L24" s="40">
+      <c r="L24" s="39">
         <v>2</v>
       </c>
-      <c r="M24" s="40">
+      <c r="M24" s="39">
         <v>69</v>
       </c>
       <c r="S24" s="2"/>
-      <c r="T24" s="47"/>
-      <c r="U24" s="47"/>
-      <c r="V24" s="47"/>
-      <c r="W24" s="47"/>
-      <c r="X24" s="47"/>
-      <c r="Y24" s="47"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="46"/>
+      <c r="X24" s="46"/>
+      <c r="Y24" s="46"/>
       <c r="Z24" s="29"/>
     </row>
-    <row r="25" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B25" s="153" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="153"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="53">
+    <row r="25" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="154" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="154"/>
+      <c r="D25" s="155"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="52">
         <f>IF(B25="","",3)</f>
         <v>3</v>
       </c>
-      <c r="K25" s="40">
+      <c r="K25" s="39">
         <v>19</v>
       </c>
-      <c r="L25" s="40">
+      <c r="L25" s="39">
         <v>2</v>
       </c>
-      <c r="M25" s="40">
+      <c r="M25" s="39">
         <v>74</v>
       </c>
       <c r="S25" s="2"/>
@@ -4742,48 +4740,48 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="153" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="153"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="52">
+    <row r="26" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="154" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="154"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="51">
         <f>IF(B26="","",4)</f>
         <v>4</v>
       </c>
-      <c r="K26" s="40">
+      <c r="K26" s="39">
         <v>20</v>
       </c>
-      <c r="L26" s="40">
+      <c r="L26" s="39">
         <v>2</v>
       </c>
-      <c r="M26" s="40">
+      <c r="M26" s="39">
         <v>79</v>
       </c>
-      <c r="T26" s="118" t="s">
+      <c r="T26" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="U26" s="46">
+      <c r="U26" s="45">
         <f t="array" ref="U26">IFERROR(DEVSQ(U7:U11)*(W7:W11),"")</f>
         <v>716.99999999999989</v>
       </c>
-      <c r="V26" s="45">
+      <c r="V26" s="44">
         <f>IFERROR(COUNT(W7:W11)-1,"")</f>
         <v>4</v>
       </c>
-      <c r="W26" s="44">
+      <c r="W26" s="43">
         <f>IFERROR(U26/V26,"")</f>
         <v>179.24999999999997</v>
       </c>
-      <c r="X26" s="44">
+      <c r="X26" s="43">
         <f>IFERROR(W26/W27,"")</f>
         <v>6.4478417266187043</v>
       </c>
-      <c r="Y26" s="44" t="str">
+      <c r="Y26" s="43" t="str">
         <f>IFERROR(IF(FDIST(X26,V26,V27)&lt;0.001,"&lt; 0.001",FDIST(X26,V26,V27)),"")</f>
         <v>&lt; 0.001</v>
       </c>
@@ -4792,30 +4790,30 @@
         <v>0.36432926829268281</v>
       </c>
     </row>
-    <row r="27" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B27" s="156" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="156"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="51">
+    <row r="27" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="157" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="157"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="50">
         <f>IF(B27="","",5)</f>
         <v>5</v>
       </c>
-      <c r="K27" s="40">
+      <c r="K27" s="39">
         <v>21</v>
       </c>
-      <c r="L27" s="40">
+      <c r="L27" s="39">
         <v>3</v>
       </c>
-      <c r="M27" s="40">
+      <c r="M27" s="39">
         <v>70</v>
       </c>
       <c r="S27" s="3"/>
-      <c r="T27" s="119" t="s">
+      <c r="T27" s="118" t="s">
         <v>15</v>
       </c>
       <c r="U27" s="8">
@@ -4834,51 +4832,51 @@
       <c r="Y27" s="11"/>
       <c r="Z27" s="12"/>
     </row>
-    <row r="28" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="K28" s="40">
+    <row r="28" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="K28" s="39">
         <v>22</v>
       </c>
-      <c r="L28" s="40">
+      <c r="L28" s="39">
         <v>3</v>
       </c>
-      <c r="M28" s="40">
+      <c r="M28" s="39">
         <v>75</v>
       </c>
       <c r="S28" s="3"/>
-      <c r="T28" s="120" t="s">
+      <c r="T28" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="U28" s="42">
+      <c r="U28" s="41">
         <f>IFERROR((V12^2)*(W12-1),"")</f>
         <v>1968.0000000000002</v>
       </c>
-      <c r="V28" s="43">
+      <c r="V28" s="42">
         <f>W12-1</f>
         <v>49</v>
       </c>
-      <c r="W28" s="42">
+      <c r="W28" s="41">
         <f>IFERROR(U28/V28,"")</f>
         <v>40.163265306122454</v>
       </c>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="42"/>
+      <c r="X28" s="41"/>
+      <c r="Y28" s="41"/>
       <c r="Z28" s="31"/>
     </row>
-    <row r="29" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K29" s="40">
+    <row r="29" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K29" s="39">
         <v>23</v>
       </c>
-      <c r="L29" s="40">
+      <c r="L29" s="39">
         <v>3</v>
       </c>
-      <c r="M29" s="40">
+      <c r="M29" s="39">
         <v>80</v>
       </c>
       <c r="T29" s="30"/>
@@ -4889,305 +4887,305 @@
       <c r="Y29" s="30"/>
       <c r="Z29" s="30"/>
     </row>
-    <row r="30" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K30" s="40">
+    <row r="30" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K30" s="39">
         <v>24</v>
       </c>
-      <c r="L30" s="40">
+      <c r="L30" s="39">
         <v>3</v>
       </c>
-      <c r="M30" s="40">
+      <c r="M30" s="39">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K31" s="40">
+    <row r="31" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K31" s="39">
         <v>25</v>
       </c>
-      <c r="L31" s="40">
+      <c r="L31" s="39">
         <v>3</v>
       </c>
-      <c r="M31" s="40">
+      <c r="M31" s="39">
         <v>70</v>
       </c>
       <c r="S31" s="29"/>
     </row>
-    <row r="32" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K32" s="40">
+    <row r="32" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K32" s="39">
         <v>26</v>
       </c>
-      <c r="L32" s="40">
+      <c r="L32" s="39">
         <v>3</v>
       </c>
-      <c r="M32" s="40">
+      <c r="M32" s="39">
         <v>65</v>
       </c>
       <c r="S32" s="29"/>
     </row>
-    <row r="33" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K33" s="40">
+    <row r="33" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K33" s="39">
         <v>27</v>
       </c>
-      <c r="L33" s="40">
+      <c r="L33" s="39">
         <v>3</v>
       </c>
-      <c r="M33" s="40">
+      <c r="M33" s="39">
         <v>70</v>
       </c>
       <c r="S33" s="29"/>
     </row>
-    <row r="34" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K34" s="40">
+    <row r="34" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K34" s="39">
         <v>28</v>
       </c>
-      <c r="L34" s="40">
+      <c r="L34" s="39">
         <v>3</v>
       </c>
-      <c r="M34" s="41">
+      <c r="M34" s="40">
         <v>75</v>
       </c>
       <c r="S34" s="29"/>
     </row>
-    <row r="35" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K35" s="40">
+    <row r="35" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K35" s="39">
         <v>29</v>
       </c>
-      <c r="L35" s="40">
+      <c r="L35" s="39">
         <v>3</v>
       </c>
-      <c r="M35" s="40">
+      <c r="M35" s="39">
         <v>70</v>
       </c>
       <c r="S35" s="29"/>
     </row>
-    <row r="36" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K36" s="40">
+    <row r="36" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K36" s="39">
         <v>30</v>
       </c>
-      <c r="L36" s="40">
+      <c r="L36" s="39">
         <v>3</v>
       </c>
-      <c r="M36" s="40">
+      <c r="M36" s="39">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K37" s="40">
+    <row r="37" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K37" s="39">
         <v>31</v>
       </c>
-      <c r="L37" s="40">
+      <c r="L37" s="39">
         <v>4</v>
       </c>
-      <c r="M37" s="40">
+      <c r="M37" s="39">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K38" s="40">
+    <row r="38" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K38" s="39">
         <v>32</v>
       </c>
-      <c r="L38" s="40">
+      <c r="L38" s="39">
         <v>4</v>
       </c>
-      <c r="M38" s="40">
+      <c r="M38" s="39">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K39" s="40">
+    <row r="39" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K39" s="39">
         <v>33</v>
       </c>
-      <c r="L39" s="40">
+      <c r="L39" s="39">
         <v>4</v>
       </c>
-      <c r="M39" s="40">
+      <c r="M39" s="39">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K40" s="40">
+    <row r="40" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K40" s="39">
         <v>34</v>
       </c>
-      <c r="L40" s="40">
+      <c r="L40" s="39">
         <v>4</v>
       </c>
-      <c r="M40" s="40">
+      <c r="M40" s="39">
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K41" s="40">
+    <row r="41" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K41" s="39">
         <v>35</v>
       </c>
-      <c r="L41" s="40">
+      <c r="L41" s="39">
         <v>4</v>
       </c>
-      <c r="M41" s="40">
+      <c r="M41" s="39">
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K42" s="40">
+    <row r="42" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K42" s="39">
         <v>36</v>
       </c>
-      <c r="L42" s="40">
+      <c r="L42" s="39">
         <v>4</v>
       </c>
-      <c r="M42" s="40">
+      <c r="M42" s="39">
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K43" s="40">
+    <row r="43" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K43" s="39">
         <v>37</v>
       </c>
-      <c r="L43" s="40">
+      <c r="L43" s="39">
         <v>4</v>
       </c>
-      <c r="M43" s="40">
+      <c r="M43" s="39">
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K44" s="40">
+    <row r="44" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K44" s="39">
         <v>38</v>
       </c>
-      <c r="L44" s="40">
+      <c r="L44" s="39">
         <v>4</v>
       </c>
-      <c r="M44" s="40">
+      <c r="M44" s="39">
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K45" s="40">
+    <row r="45" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K45" s="39">
         <v>39</v>
       </c>
-      <c r="L45" s="40">
+      <c r="L45" s="39">
         <v>4</v>
       </c>
-      <c r="M45" s="40">
+      <c r="M45" s="39">
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K46" s="40">
+    <row r="46" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K46" s="39">
         <v>40</v>
       </c>
-      <c r="L46" s="40">
+      <c r="L46" s="39">
         <v>4</v>
       </c>
-      <c r="M46" s="40">
+      <c r="M46" s="39">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K47" s="40">
+    <row r="47" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K47" s="39">
         <v>41</v>
       </c>
-      <c r="L47" s="40">
+      <c r="L47" s="39">
         <v>5</v>
       </c>
-      <c r="M47" s="40">
+      <c r="M47" s="39">
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K48" s="40">
+    <row r="48" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K48" s="39">
         <v>42</v>
       </c>
-      <c r="L48" s="40">
+      <c r="L48" s="39">
         <v>5</v>
       </c>
-      <c r="M48" s="40">
+      <c r="M48" s="39">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K49" s="40">
+    <row r="49" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K49" s="39">
         <v>43</v>
       </c>
-      <c r="L49" s="40">
+      <c r="L49" s="39">
         <v>5</v>
       </c>
-      <c r="M49" s="40">
+      <c r="M49" s="39">
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K50" s="40">
+    <row r="50" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K50" s="39">
         <v>44</v>
       </c>
-      <c r="L50" s="40">
+      <c r="L50" s="39">
         <v>5</v>
       </c>
-      <c r="M50" s="40">
+      <c r="M50" s="39">
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K51" s="40">
+    <row r="51" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K51" s="39">
         <v>45</v>
       </c>
-      <c r="L51" s="40">
+      <c r="L51" s="39">
         <v>5</v>
       </c>
-      <c r="M51" s="40">
+      <c r="M51" s="39">
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K52" s="40">
+    <row r="52" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K52" s="39">
         <v>46</v>
       </c>
-      <c r="L52" s="40">
+      <c r="L52" s="39">
         <v>5</v>
       </c>
-      <c r="M52" s="40">
+      <c r="M52" s="39">
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K53" s="40">
+    <row r="53" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K53" s="39">
         <v>47</v>
       </c>
-      <c r="L53" s="40">
+      <c r="L53" s="39">
         <v>5</v>
       </c>
-      <c r="M53" s="40">
+      <c r="M53" s="39">
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K54" s="40">
+    <row r="54" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K54" s="39">
         <v>48</v>
       </c>
-      <c r="L54" s="40">
+      <c r="L54" s="39">
         <v>5</v>
       </c>
-      <c r="M54" s="40">
+      <c r="M54" s="39">
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K55" s="40">
+    <row r="55" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K55" s="39">
         <v>49</v>
       </c>
-      <c r="L55" s="40">
+      <c r="L55" s="39">
         <v>5</v>
       </c>
-      <c r="M55" s="40">
+      <c r="M55" s="39">
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K56" s="40">
+    <row r="56" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K56" s="39">
         <v>50</v>
       </c>
-      <c r="L56" s="40">
+      <c r="L56" s="39">
         <v>5</v>
       </c>
-      <c r="M56" s="40">
+      <c r="M56" s="39">
         <v>70</v>
       </c>
     </row>
@@ -5233,443 +5231,443 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.578125" style="124" customWidth="1"/>
-    <col min="2" max="8" width="11.15625" style="124"/>
-    <col min="9" max="10" width="4.578125" style="124" customWidth="1"/>
-    <col min="11" max="17" width="11.15625" style="124"/>
-    <col min="18" max="19" width="4.578125" style="124" customWidth="1"/>
-    <col min="20" max="16384" width="11.15625" style="124"/>
+    <col min="1" max="1" width="4.5703125" style="123" customWidth="1"/>
+    <col min="2" max="8" width="11.140625" style="123"/>
+    <col min="9" max="10" width="4.5703125" style="123" customWidth="1"/>
+    <col min="11" max="17" width="11.140625" style="123"/>
+    <col min="18" max="19" width="4.5703125" style="123" customWidth="1"/>
+    <col min="20" max="16384" width="11.140625" style="123"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="170" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="K2" s="170" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="170"/>
-      <c r="P2" s="170"/>
-      <c r="Q2" s="170"/>
-    </row>
-    <row r="4" spans="2:17" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="125" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="126"/>
-      <c r="G4" s="124" t="s">
+    <row r="2" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="171" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="K2" s="171" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+    </row>
+    <row r="4" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="125"/>
+      <c r="G4" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="122">
+      <c r="H4" s="121">
         <v>95</v>
       </c>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="125" t="s">
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="124" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="123"/>
+      <c r="Q4" s="123"/>
+    </row>
+    <row r="5" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="123"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="123"/>
+      <c r="Q5" s="123"/>
+    </row>
+    <row r="6" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="127" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="127" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="170" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="170"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124"/>
-    </row>
-    <row r="5" spans="2:17" s="127" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="124"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="124"/>
-    </row>
-    <row r="6" spans="2:17" s="127" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="128" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="128" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="128" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="169" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="169"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="129" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="129" t="s">
+      <c r="M6" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="121" t="s">
+      <c r="N6" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="128" t="s">
+      <c r="O6" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="128" t="s">
+      <c r="P6" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="128" t="s">
+      <c r="Q6" s="127" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:17" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="130" t="str">
+    <row r="7" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="129" t="str">
         <f>IF(C7="","",IF(Data!B23="","1",Data!B23))</f>
         <v>One</v>
       </c>
-      <c r="C7" s="131">
+      <c r="C7" s="130">
         <f>IFERROR(Data!U7,"")</f>
         <v>67</v>
       </c>
-      <c r="D7" s="131">
+      <c r="D7" s="130">
         <f>IF(C7="","",Data!V7)</f>
         <v>4.2946995755750415</v>
       </c>
-      <c r="E7" s="132">
+      <c r="E7" s="131">
         <f>IFERROR(C7-TINV(1-$H$4/100,Data!W7-1)*O7,"")</f>
         <v>63.927756999543114</v>
       </c>
-      <c r="F7" s="132">
+      <c r="F7" s="131">
         <f>IFERROR(C7+TINV(1-$H$4/100,Data!W7-1)*O7,"")</f>
         <v>70.072243000456893</v>
       </c>
-      <c r="G7" s="133">
+      <c r="G7" s="132">
         <f>IFERROR(C7-TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
         <v>64.625407125225294</v>
       </c>
-      <c r="H7" s="133">
+      <c r="H7" s="132">
         <f>IFERROR(C7+TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
         <v>69.374592874774706</v>
       </c>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="134" t="str">
+      <c r="I7" s="123"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="133" t="str">
         <f t="shared" ref="K7:K11" si="0">B7</f>
         <v>One</v>
       </c>
-      <c r="L7" s="92">
+      <c r="L7" s="91">
         <v>70</v>
       </c>
-      <c r="M7" s="131">
+      <c r="M7" s="130">
         <f>IFERROR(C7-L7,"")</f>
         <v>-3</v>
       </c>
-      <c r="N7" s="93">
+      <c r="N7" s="92">
         <f>IFERROR(Data!W7-1,"")</f>
         <v>9</v>
       </c>
-      <c r="O7" s="131">
+      <c r="O7" s="130">
         <f>IFERROR(Data!X7,"")</f>
         <v>1.3581032524975574</v>
       </c>
-      <c r="P7" s="131">
+      <c r="P7" s="130">
         <f>IFERROR(M7/O7,"")</f>
         <v>-2.2089631215321721</v>
       </c>
-      <c r="Q7" s="131">
+      <c r="Q7" s="130">
         <f>IFERROR(IF(TDIST(ABS(P7),N7,2)&lt;0.001,"&lt;0.001",TDIST(ABS(P7),N7,2)),"")</f>
         <v>5.4537415263324604E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:17" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="134" t="str">
+    <row r="8" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="133" t="str">
         <f>IF(C8="","",IF(Data!B24="","2",Data!B24))</f>
         <v>Two</v>
       </c>
-      <c r="C8" s="131">
+      <c r="C8" s="130">
         <f>IFERROR(Data!U8,"")</f>
         <v>71</v>
       </c>
-      <c r="D8" s="131">
+      <c r="D8" s="130">
         <f>IF(C8="","",Data!V8)</f>
         <v>5.3748384988656994</v>
       </c>
-      <c r="E8" s="131">
+      <c r="E8" s="130">
         <f>IFERROR(C8-TINV(1-$H$4/100,Data!W8-1)*O8,"")</f>
         <v>67.155072161359428</v>
       </c>
-      <c r="F8" s="131">
+      <c r="F8" s="130">
         <f>IFERROR(C8+TINV(1-$H$4/100,Data!W8-1)*O8,"")</f>
         <v>74.844927838640572</v>
       </c>
-      <c r="G8" s="131">
+      <c r="G8" s="130">
         <f>IFERROR(C8-TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
         <v>68.625407125225294</v>
       </c>
-      <c r="H8" s="131">
+      <c r="H8" s="130">
         <f>IFERROR(C8+TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
         <v>73.374592874774706</v>
       </c>
-      <c r="I8" s="124"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="131" t="str">
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="130" t="str">
         <f t="shared" si="0"/>
         <v>Two</v>
       </c>
-      <c r="L8" s="92">
+      <c r="L8" s="91">
         <v>70</v>
       </c>
-      <c r="M8" s="131">
+      <c r="M8" s="130">
         <f>IFERROR(C8-L8,"")</f>
         <v>1</v>
       </c>
-      <c r="N8" s="93">
+      <c r="N8" s="92">
         <f>IFERROR(Data!W8-1,"")</f>
         <v>9</v>
       </c>
-      <c r="O8" s="131">
+      <c r="O8" s="130">
         <f>IFERROR(Data!X8,"")</f>
         <v>1.6996731711975948</v>
       </c>
-      <c r="P8" s="131">
+      <c r="P8" s="130">
         <f>IFERROR(M8/O8,"")</f>
         <v>0.58834840541455213</v>
       </c>
-      <c r="Q8" s="131">
+      <c r="Q8" s="130">
         <f>IFERROR(IF(TDIST(ABS(P8),N8,2)&lt;0.001,"&lt;0.001",TDIST(ABS(P8),N8,2)),"")</f>
         <v>0.57076596523986223</v>
       </c>
     </row>
-    <row r="9" spans="2:17" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="134" t="str">
+    <row r="9" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="133" t="str">
         <f>IF(C9="","",IF(Data!B25="","3",Data!B25))</f>
         <v>Three</v>
       </c>
-      <c r="C9" s="131">
+      <c r="C9" s="130">
         <f>IFERROR(Data!U9,"")</f>
         <v>72.5</v>
       </c>
-      <c r="D9" s="131">
+      <c r="D9" s="130">
         <f>IF(C9="","",Data!V9)</f>
         <v>4.85912657903775</v>
       </c>
-      <c r="E9" s="131">
+      <c r="E9" s="130">
         <f>IFERROR(C9-TINV(1-$H$4/100,Data!W9-1)*O9,"")</f>
         <v>69.023990244699732</v>
       </c>
-      <c r="F9" s="131">
+      <c r="F9" s="130">
         <f>IFERROR(C9+TINV(1-$H$4/100,Data!W9-1)*O9,"")</f>
         <v>75.976009755300268</v>
       </c>
-      <c r="G9" s="131">
+      <c r="G9" s="130">
         <f>IFERROR(C9-TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
         <v>70.125407125225294</v>
       </c>
-      <c r="H9" s="131">
+      <c r="H9" s="130">
         <f>IFERROR(C9+TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
         <v>74.874592874774706</v>
       </c>
-      <c r="I9" s="124"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="131" t="str">
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="130" t="str">
         <f t="shared" si="0"/>
         <v>Three</v>
       </c>
-      <c r="L9" s="92">
+      <c r="L9" s="91">
         <v>70</v>
       </c>
-      <c r="M9" s="131">
+      <c r="M9" s="130">
         <f>IFERROR(C9-L9,"")</f>
         <v>2.5</v>
       </c>
-      <c r="N9" s="93">
+      <c r="N9" s="92">
         <f>IFERROR(Data!W9-1,"")</f>
         <v>9</v>
       </c>
-      <c r="O9" s="131">
+      <c r="O9" s="130">
         <f>IFERROR(Data!X9,"")</f>
         <v>1.5365907428821477</v>
       </c>
-      <c r="P9" s="131">
+      <c r="P9" s="130">
         <f>IFERROR(M9/O9,"")</f>
         <v>1.6269784336399216</v>
       </c>
-      <c r="Q9" s="131">
+      <c r="Q9" s="130">
         <f>IFERROR(IF(TDIST(ABS(P9),N9,2)&lt;0.001,"&lt;0.001",TDIST(ABS(P9),N9,2)),"")</f>
         <v>0.13818475535118313</v>
       </c>
     </row>
-    <row r="10" spans="2:17" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="134" t="str">
+    <row r="10" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="133" t="str">
         <f>IF(C10="","",IF(Data!B26="","4",Data!B26))</f>
         <v>Four</v>
       </c>
-      <c r="C10" s="131">
+      <c r="C10" s="130">
         <f>IFERROR(Data!U10,"")</f>
         <v>76</v>
       </c>
-      <c r="D10" s="131">
+      <c r="D10" s="130">
         <f>IF(C10="","",Data!V10)</f>
         <v>6.5828058860438334</v>
       </c>
-      <c r="E10" s="131">
+      <c r="E10" s="130">
         <f>IFERROR(C10-TINV(1-$H$4/100,Data!W10-1)*O10,"")</f>
         <v>71.290944348754209</v>
       </c>
-      <c r="F10" s="131">
+      <c r="F10" s="130">
         <f>IFERROR(C10+TINV(1-$H$4/100,Data!W10-1)*O10,"")</f>
         <v>80.709055651245791</v>
       </c>
-      <c r="G10" s="131">
+      <c r="G10" s="130">
         <f>IFERROR(C10-TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
         <v>73.625407125225294</v>
       </c>
-      <c r="H10" s="131">
+      <c r="H10" s="130">
         <f>IFERROR(C10+TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
         <v>78.374592874774706</v>
       </c>
-      <c r="I10" s="124"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="131" t="str">
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="130" t="str">
         <f t="shared" si="0"/>
         <v>Four</v>
       </c>
-      <c r="L10" s="92">
+      <c r="L10" s="91">
         <v>70</v>
       </c>
-      <c r="M10" s="131">
+      <c r="M10" s="130">
         <f>IFERROR(C10-L10,"")</f>
         <v>6</v>
       </c>
-      <c r="N10" s="93">
+      <c r="N10" s="92">
         <f>IFERROR(Data!W10-1,"")</f>
         <v>9</v>
       </c>
-      <c r="O10" s="131">
+      <c r="O10" s="130">
         <f>IFERROR(Data!X10,"")</f>
         <v>2.0816659994661326</v>
       </c>
-      <c r="P10" s="131">
+      <c r="P10" s="130">
         <f>IFERROR(M10/O10,"")</f>
         <v>2.8823067684915684</v>
       </c>
-      <c r="Q10" s="131">
+      <c r="Q10" s="130">
         <f>IFERROR(IF(TDIST(ABS(P10),N10,2)&lt;0.001,"&lt;0.001",TDIST(ABS(P10),N10,2)),"")</f>
         <v>1.8109821663250519E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:17" s="127" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="148" t="str">
+    <row r="11" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="147" t="str">
         <f>IF(C11="","",IF(Data!B27="","5",Data!B27))</f>
         <v>Five</v>
       </c>
-      <c r="C11" s="135">
+      <c r="C11" s="134">
         <f>IFERROR(Data!U11,"")</f>
         <v>65.5</v>
       </c>
-      <c r="D11" s="135">
+      <c r="D11" s="134">
         <f>IF(C11="","",Data!V11)</f>
         <v>4.9721446300587662</v>
       </c>
-      <c r="E11" s="135">
+      <c r="E11" s="134">
         <f>IFERROR(C11-TINV(1-$H$4/100,Data!W11-1)*O11,"")</f>
         <v>61.943142001402506</v>
       </c>
-      <c r="F11" s="135">
+      <c r="F11" s="134">
         <f>IFERROR(C11+TINV(1-$H$4/100,Data!W11-1)*O11,"")</f>
         <v>69.056857998597494</v>
       </c>
-      <c r="G11" s="135">
+      <c r="G11" s="134">
         <f>IFERROR(C11-TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
         <v>63.125407125225294</v>
       </c>
-      <c r="H11" s="135">
+      <c r="H11" s="134">
         <f>IFERROR(C11+TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
         <v>67.874592874774706</v>
       </c>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="135" t="str">
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="134" t="str">
         <f t="shared" si="0"/>
         <v>Five</v>
       </c>
-      <c r="L11" s="94">
+      <c r="L11" s="93">
         <v>70</v>
       </c>
-      <c r="M11" s="135">
+      <c r="M11" s="134">
         <f>IFERROR(C11-L11,"")</f>
         <v>-4.5</v>
       </c>
-      <c r="N11" s="95">
+      <c r="N11" s="94">
         <f>IFERROR(Data!W11-1,"")</f>
         <v>9</v>
       </c>
-      <c r="O11" s="135">
+      <c r="O11" s="134">
         <f>IFERROR(Data!X11,"")</f>
         <v>1.5723301886761005</v>
       </c>
-      <c r="P11" s="135">
+      <c r="P11" s="134">
         <f>IFERROR(M11/O11,"")</f>
         <v>-2.8619942760171719</v>
       </c>
-      <c r="Q11" s="135">
+      <c r="Q11" s="134">
         <f>IFERROR(IF(TDIST(ABS(P11),N11,2)&lt;0.001,"&lt;0.001",TDIST(ABS(P11),N11,2)),"")</f>
         <v>1.8719423349875645E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:17" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="124"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="124"/>
+    <row r="12" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="123"/>
       <c r="N12" s="24"/>
-      <c r="O12" s="124"/>
-      <c r="P12" s="124"/>
-      <c r="Q12" s="124"/>
-    </row>
-    <row r="13" spans="2:17" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B13" s="125" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="124"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="123"/>
+      <c r="Q12" s="123"/>
+    </row>
+    <row r="13" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
       <c r="K13" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -5678,16 +5676,16 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="2:17" s="127" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="124"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="124"/>
+    <row r="14" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -5696,30 +5694,30 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="2:17" s="127" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="14" t="s">
         <v>23</v>
       </c>
       <c r="H15" s="15"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="121" t="s">
-        <v>62</v>
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="120" t="s">
+        <v>60</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M15" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="N15" s="121" t="s">
+      <c r="N15" s="120" t="s">
         <v>2</v>
       </c>
       <c r="O15" s="23" t="s">
@@ -5732,7 +5730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:17" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
         <v>0</v>
       </c>
@@ -5754,35 +5752,35 @@
       <c r="H16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="124"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="114" t="str">
+      <c r="I16" s="123"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="113" t="str">
         <f>IF(M16="","","1 vs. 2")</f>
         <v>1 vs. 2</v>
       </c>
-      <c r="L16" s="96"/>
-      <c r="M16" s="97">
+      <c r="L16" s="95"/>
+      <c r="M16" s="96">
         <f>IFERROR(C7-C8-L16,"")</f>
         <v>-4</v>
       </c>
-      <c r="N16" s="99">
+      <c r="N16" s="98">
         <f>IFERROR(Data!W7+Data!W8-2,"")</f>
         <v>18</v>
       </c>
-      <c r="O16" s="97">
+      <c r="O16" s="96">
         <f>IF(M16="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v>2.3579652245103193</v>
       </c>
-      <c r="P16" s="98">
+      <c r="P16" s="97">
         <f t="shared" ref="P16:P25" si="1">IFERROR(M16/O16,"")</f>
         <v>-1.6963778593599417</v>
       </c>
-      <c r="Q16" s="132">
+      <c r="Q16" s="131">
         <f t="shared" ref="Q16:Q25" si="2">IFERROR(IF(TDIST(ABS(P16),N16,2)&lt;0.001,"&lt;0.001",TDIST(ABS(P16),N16,2)),"")</f>
         <v>0.10703969299475195</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <v>1.1499999999999999</v>
       </c>
@@ -5803,35 +5801,35 @@
         <f>L7</f>
         <v>70</v>
       </c>
-      <c r="I17" s="124"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="115" t="str">
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="114" t="str">
         <f>IF(M17="","","1 vs. 3")</f>
         <v>1 vs. 3</v>
       </c>
-      <c r="L17" s="100"/>
-      <c r="M17" s="101">
+      <c r="L17" s="99"/>
+      <c r="M17" s="100">
         <f>IFERROR(C7-C9-L17,"")</f>
         <v>-5.5</v>
       </c>
-      <c r="N17" s="93">
+      <c r="N17" s="92">
         <f>IFERROR(Data!W7+Data!W9-2,"")</f>
         <v>18</v>
       </c>
-      <c r="O17" s="101">
+      <c r="O17" s="100">
         <f>IF(M17="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v>2.3579652245103193</v>
       </c>
-      <c r="P17" s="102">
+      <c r="P17" s="101">
         <f t="shared" si="1"/>
         <v>-2.3325195566199199</v>
       </c>
-      <c r="Q17" s="131">
+      <c r="Q17" s="130">
         <f t="shared" si="2"/>
         <v>3.1481211264458582E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <v>1.1499999999999999</v>
       </c>
@@ -5852,35 +5850,35 @@
         <f>L7</f>
         <v>70</v>
       </c>
-      <c r="I18" s="124"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="115" t="str">
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="114" t="str">
         <f>IF(M18="","","1 vs. 4")</f>
         <v>1 vs. 4</v>
       </c>
-      <c r="L18" s="100"/>
-      <c r="M18" s="101">
+      <c r="L18" s="99"/>
+      <c r="M18" s="100">
         <f>IFERROR(C7-C10-L18,"")</f>
         <v>-9</v>
       </c>
-      <c r="N18" s="93">
+      <c r="N18" s="92">
         <f>IFERROR(Data!W7+Data!W10-2,"")</f>
         <v>18</v>
       </c>
-      <c r="O18" s="101">
+      <c r="O18" s="100">
         <f>IF(M18="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v>2.3579652245103193</v>
       </c>
-      <c r="P18" s="102">
+      <c r="P18" s="101">
         <f t="shared" si="1"/>
         <v>-3.8168501835598692</v>
       </c>
-      <c r="Q18" s="131">
+      <c r="Q18" s="130">
         <f t="shared" si="2"/>
         <v>1.2630601761004217E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
         <v>1.1499999999999999</v>
       </c>
@@ -5901,33 +5899,33 @@
         <f>L7</f>
         <v>70</v>
       </c>
-      <c r="K19" s="115" t="str">
+      <c r="K19" s="114" t="str">
         <f>IF(M19="","","1 vs. 5")</f>
         <v>1 vs. 5</v>
       </c>
-      <c r="L19" s="100"/>
-      <c r="M19" s="101">
+      <c r="L19" s="99"/>
+      <c r="M19" s="100">
         <f>IFERROR(C7-C11-L19,"")</f>
         <v>1.5</v>
       </c>
-      <c r="N19" s="93">
+      <c r="N19" s="92">
         <f>IFERROR(Data!W7+Data!W11-2,"")</f>
         <v>18</v>
       </c>
-      <c r="O19" s="101">
+      <c r="O19" s="100">
         <f>IF(M19="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v>2.3579652245103193</v>
       </c>
-      <c r="P19" s="102">
+      <c r="P19" s="101">
         <f t="shared" si="1"/>
         <v>0.63614169725997816</v>
       </c>
-      <c r="Q19" s="131">
+      <c r="Q19" s="130">
         <f t="shared" si="2"/>
         <v>0.53269025785809743</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7">
         <v>2.15</v>
       </c>
@@ -5948,33 +5946,33 @@
         <f>L8</f>
         <v>70</v>
       </c>
-      <c r="K20" s="115" t="str">
+      <c r="K20" s="114" t="str">
         <f>IF(M20="","","2 vs. 3")</f>
         <v>2 vs. 3</v>
       </c>
-      <c r="L20" s="100"/>
-      <c r="M20" s="101">
+      <c r="L20" s="99"/>
+      <c r="M20" s="100">
         <f>IFERROR(C8-C9-L20,"")</f>
         <v>-1.5</v>
       </c>
-      <c r="N20" s="93">
+      <c r="N20" s="92">
         <f>IFERROR(Data!W8+Data!W9-2,"")</f>
         <v>18</v>
       </c>
-      <c r="O20" s="101">
+      <c r="O20" s="100">
         <f>IF(M20="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v>2.3579652245103193</v>
       </c>
-      <c r="P20" s="102">
+      <c r="P20" s="101">
         <f t="shared" si="1"/>
         <v>-0.63614169725997816</v>
       </c>
-      <c r="Q20" s="131">
+      <c r="Q20" s="130">
         <f t="shared" si="2"/>
         <v>0.53269025785809743</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
         <v>2.15</v>
       </c>
@@ -5995,33 +5993,33 @@
         <f>L8</f>
         <v>70</v>
       </c>
-      <c r="K21" s="115" t="str">
+      <c r="K21" s="114" t="str">
         <f>IF(M21="","","2 vs. 4")</f>
         <v>2 vs. 4</v>
       </c>
-      <c r="L21" s="100"/>
-      <c r="M21" s="101">
+      <c r="L21" s="99"/>
+      <c r="M21" s="100">
         <f>IFERROR(C8-C10-L21,"")</f>
         <v>-5</v>
       </c>
-      <c r="N21" s="93">
+      <c r="N21" s="92">
         <f>IFERROR(Data!W8+Data!W10-2,"")</f>
         <v>18</v>
       </c>
-      <c r="O21" s="101">
+      <c r="O21" s="100">
         <f>IF(M21="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v>2.3579652245103193</v>
       </c>
-      <c r="P21" s="102">
+      <c r="P21" s="101">
         <f t="shared" si="1"/>
         <v>-2.1204723241999273</v>
       </c>
-      <c r="Q21" s="131">
+      <c r="Q21" s="130">
         <f t="shared" si="2"/>
         <v>4.8117695881367877E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7">
         <v>2.15</v>
       </c>
@@ -6042,33 +6040,33 @@
         <f>L8</f>
         <v>70</v>
       </c>
-      <c r="K22" s="115" t="str">
+      <c r="K22" s="114" t="str">
         <f>IF(M22="","","2 vs. 5")</f>
         <v>2 vs. 5</v>
       </c>
-      <c r="L22" s="100"/>
-      <c r="M22" s="101">
+      <c r="L22" s="99"/>
+      <c r="M22" s="100">
         <f>IFERROR(C8-C11-L22,"")</f>
         <v>5.5</v>
       </c>
-      <c r="N22" s="93">
+      <c r="N22" s="92">
         <f>IFERROR(Data!W8+Data!W11-2,"")</f>
         <v>18</v>
       </c>
-      <c r="O22" s="101">
+      <c r="O22" s="100">
         <f>IF(M22="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v>2.3579652245103193</v>
       </c>
-      <c r="P22" s="102">
+      <c r="P22" s="101">
         <f t="shared" si="1"/>
         <v>2.3325195566199199</v>
       </c>
-      <c r="Q22" s="131">
+      <c r="Q22" s="130">
         <f t="shared" si="2"/>
         <v>3.1481211264458582E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
         <v>3.15</v>
       </c>
@@ -6089,33 +6087,33 @@
         <f>L9</f>
         <v>70</v>
       </c>
-      <c r="K23" s="115" t="str">
+      <c r="K23" s="114" t="str">
         <f>IF(M23="","","3 vs. 4")</f>
         <v>3 vs. 4</v>
       </c>
-      <c r="L23" s="100"/>
-      <c r="M23" s="101">
+      <c r="L23" s="99"/>
+      <c r="M23" s="100">
         <f>IFERROR(C9-C10-L23,"")</f>
         <v>-3.5</v>
       </c>
-      <c r="N23" s="93">
+      <c r="N23" s="92">
         <f>IFERROR(Data!W9+Data!W10-2,"")</f>
         <v>18</v>
       </c>
-      <c r="O23" s="101">
+      <c r="O23" s="100">
         <f>IF(M23="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v>2.3579652245103193</v>
       </c>
-      <c r="P23" s="102">
+      <c r="P23" s="101">
         <f t="shared" si="1"/>
         <v>-1.484330626939949</v>
       </c>
-      <c r="Q23" s="131">
+      <c r="Q23" s="130">
         <f t="shared" si="2"/>
         <v>0.15502236496536209</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
         <v>3.15</v>
       </c>
@@ -6136,33 +6134,33 @@
         <f>L9</f>
         <v>70</v>
       </c>
-      <c r="K24" s="115" t="str">
+      <c r="K24" s="114" t="str">
         <f>IF(M24="","","3 vs. 5")</f>
         <v>3 vs. 5</v>
       </c>
-      <c r="L24" s="100"/>
-      <c r="M24" s="101">
+      <c r="L24" s="99"/>
+      <c r="M24" s="100">
         <f>IFERROR(C9-C11-L24,"")</f>
         <v>7</v>
       </c>
-      <c r="N24" s="93">
+      <c r="N24" s="92">
         <f>IFERROR(Data!W9+Data!W11-2,"")</f>
         <v>18</v>
       </c>
-      <c r="O24" s="101">
+      <c r="O24" s="100">
         <f>IF(M24="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v>2.3579652245103193</v>
       </c>
-      <c r="P24" s="102">
+      <c r="P24" s="101">
         <f t="shared" si="1"/>
         <v>2.968661253879898</v>
       </c>
-      <c r="Q24" s="131">
+      <c r="Q24" s="130">
         <f t="shared" si="2"/>
         <v>8.2268572219328304E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="7">
         <v>3.15</v>
       </c>
@@ -6183,33 +6181,33 @@
         <f>L9</f>
         <v>70</v>
       </c>
-      <c r="K25" s="115" t="str">
+      <c r="K25" s="114" t="str">
         <f>IF(M25="","","4 vs. 5")</f>
         <v>4 vs. 5</v>
       </c>
-      <c r="L25" s="103"/>
-      <c r="M25" s="101">
+      <c r="L25" s="102"/>
+      <c r="M25" s="100">
         <f>IFERROR(C10-C11-L25,"")</f>
         <v>10.5</v>
       </c>
-      <c r="N25" s="95">
+      <c r="N25" s="94">
         <f>IFERROR(Data!W10+Data!W11-2,"")</f>
         <v>18</v>
       </c>
-      <c r="O25" s="104">
+      <c r="O25" s="103">
         <f>IF(M25="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v>2.3579652245103193</v>
       </c>
-      <c r="P25" s="105">
+      <c r="P25" s="104">
         <f t="shared" si="1"/>
         <v>4.4529918808198472</v>
       </c>
-      <c r="Q25" s="135" t="str">
+      <c r="Q25" s="134" t="str">
         <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
         <v>4.1500000000000004</v>
       </c>
@@ -6238,7 +6236,7 @@
       <c r="P26" s="24"/>
       <c r="Q26" s="24"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6">
         <v>4.1500000000000004</v>
       </c>
@@ -6259,11 +6257,11 @@
         <f>L10</f>
         <v>70</v>
       </c>
-      <c r="K27" s="125" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="K27" s="124" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6">
         <v>4.1500000000000004</v>
       </c>
@@ -6285,7 +6283,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6">
         <v>5.15</v>
       </c>
@@ -6293,45 +6291,45 @@
         <f>IF(F11="",NA(),F11)</f>
         <v>69.056857998597494</v>
       </c>
-      <c r="D29" s="136"/>
+      <c r="D29" s="135"/>
       <c r="E29" s="7">
         <f>IF(H11="",NA(),H11)</f>
         <v>67.874592874774706</v>
       </c>
-      <c r="G29" s="136">
+      <c r="G29" s="135">
         <v>4.5</v>
       </c>
-      <c r="H29" s="136">
+      <c r="H29" s="135">
         <f>L11</f>
         <v>70</v>
       </c>
-      <c r="K29" s="137" t="str">
+      <c r="K29" s="136" t="str">
         <f>Data!T25</f>
         <v>Source</v>
       </c>
-      <c r="L29" s="138"/>
-      <c r="M29" s="138" t="str">
+      <c r="L29" s="137"/>
+      <c r="M29" s="137" t="str">
         <f>Data!U25</f>
         <v>SS</v>
       </c>
-      <c r="N29" s="138" t="str">
+      <c r="N29" s="137" t="str">
         <f>Data!V25</f>
         <v>df</v>
       </c>
-      <c r="O29" s="138" t="str">
+      <c r="O29" s="137" t="str">
         <f>Data!W25</f>
         <v>MS</v>
       </c>
-      <c r="P29" s="138" t="str">
+      <c r="P29" s="137" t="str">
         <f>Data!X25</f>
         <v>F</v>
       </c>
-      <c r="Q29" s="138" t="str">
+      <c r="Q29" s="137" t="str">
         <f>Data!Y25</f>
         <v>p</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6">
         <v>5.15</v>
       </c>
@@ -6339,44 +6337,44 @@
         <f>IF(C11="",NA(),C11)</f>
         <v>65.5</v>
       </c>
-      <c r="D30" s="136"/>
+      <c r="D30" s="135"/>
       <c r="E30" s="6">
         <f>IF(C11="",NA(),C11)</f>
         <v>65.5</v>
       </c>
-      <c r="G30" s="136">
+      <c r="G30" s="135">
         <v>5</v>
       </c>
-      <c r="H30" s="136">
+      <c r="H30" s="135">
         <f>L11</f>
         <v>70</v>
       </c>
-      <c r="K30" s="139" t="s">
-        <v>77</v>
-      </c>
-      <c r="L30" s="140"/>
-      <c r="M30" s="140">
+      <c r="K30" s="138" t="s">
+        <v>74</v>
+      </c>
+      <c r="L30" s="139"/>
+      <c r="M30" s="139">
         <f>IF(Data!U26&gt;0,Data!U26,"")</f>
         <v>716.99999999999989</v>
       </c>
-      <c r="N30" s="141">
+      <c r="N30" s="140">
         <f>IF(Data!V26&gt;0,Data!V26,"")</f>
         <v>4</v>
       </c>
-      <c r="O30" s="140">
+      <c r="O30" s="139">
         <f>Data!W26</f>
         <v>179.24999999999997</v>
       </c>
-      <c r="P30" s="140">
+      <c r="P30" s="139">
         <f>Data!X26</f>
         <v>6.4478417266187043</v>
       </c>
-      <c r="Q30" s="140" t="str">
+      <c r="Q30" s="139" t="str">
         <f>Data!Y26</f>
         <v>&lt; 0.001</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="6">
         <v>5.15</v>
@@ -6385,65 +6383,65 @@
         <f>IF(E11="",NA(),E11)</f>
         <v>61.943142001402506</v>
       </c>
-      <c r="D31" s="136"/>
+      <c r="D31" s="135"/>
       <c r="E31" s="7">
         <f>IF(G11="",NA(),G11)</f>
         <v>63.125407125225294</v>
       </c>
-      <c r="G31" s="136">
+      <c r="G31" s="135">
         <v>5.5</v>
       </c>
-      <c r="H31" s="136">
+      <c r="H31" s="135">
         <f>L11</f>
         <v>70</v>
       </c>
-      <c r="K31" s="142" t="s">
-        <v>78</v>
-      </c>
-      <c r="L31" s="143"/>
-      <c r="M31" s="143">
+      <c r="K31" s="141" t="s">
+        <v>75</v>
+      </c>
+      <c r="L31" s="142"/>
+      <c r="M31" s="142">
         <f>IF(Data!U27&gt;0,Data!U27,"")</f>
         <v>1251</v>
       </c>
-      <c r="N31" s="144">
+      <c r="N31" s="143">
         <f>IF(Data!V27&gt;0,Data!V27,"")</f>
         <v>45</v>
       </c>
-      <c r="O31" s="131">
+      <c r="O31" s="130">
         <f>Data!W27</f>
         <v>27.8</v>
       </c>
-      <c r="P31" s="131"/>
-      <c r="Q31" s="143"/>
-    </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="P31" s="130"/>
+      <c r="Q31" s="142"/>
+    </row>
+    <row r="32" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="7"/>
       <c r="C32" s="6"/>
-      <c r="K32" s="145" t="str">
+      <c r="K32" s="144" t="str">
         <f>Data!T28</f>
         <v>Total</v>
       </c>
-      <c r="L32" s="146"/>
-      <c r="M32" s="146">
+      <c r="L32" s="145"/>
+      <c r="M32" s="145">
         <f>Data!U28</f>
         <v>1968.0000000000002</v>
       </c>
-      <c r="N32" s="147">
+      <c r="N32" s="146">
         <f>IF(Data!V28&gt;0,Data!V28,"")</f>
         <v>49</v>
       </c>
-      <c r="O32" s="146">
+      <c r="O32" s="145">
         <f>Data!W28</f>
         <v>40.163265306122454</v>
       </c>
-      <c r="P32" s="146"/>
-      <c r="Q32" s="146"/>
-    </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P32" s="145"/>
+      <c r="Q32" s="145"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="28"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
@@ -6452,7 +6450,7 @@
       <c r="G36" s="29"/>
       <c r="H36" s="29"/>
     </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
@@ -6461,7 +6459,7 @@
       <c r="G37" s="33"/>
       <c r="H37" s="33"/>
     </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="14"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
@@ -6470,7 +6468,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -6479,7 +6477,7 @@
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -6488,7 +6486,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="7"/>
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
@@ -6497,7 +6495,7 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -6506,7 +6504,7 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -6515,7 +6513,7 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
@@ -6524,7 +6522,7 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -6533,7 +6531,7 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -6542,7 +6540,7 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
@@ -6551,7 +6549,7 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -6560,7 +6558,7 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -6569,7 +6567,7 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="7"/>
@@ -6578,7 +6576,7 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -6587,7 +6585,7 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -6596,7 +6594,7 @@
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
@@ -6605,7 +6603,7 @@
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -6614,7 +6612,7 @@
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -6623,7 +6621,7 @@
       <c r="G55" s="34"/>
       <c r="H55" s="34"/>
     </row>
-    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="15"/>
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
@@ -6632,7 +6630,7 @@
       <c r="G56" s="33"/>
       <c r="H56" s="33"/>
     </row>
-    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -6641,7 +6639,7 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -6650,7 +6648,7 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -6659,7 +6657,7 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -6668,7 +6666,7 @@
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -6677,7 +6675,7 @@
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -6686,7 +6684,7 @@
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -6695,7 +6693,7 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -6704,7 +6702,7 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -6713,7 +6711,7 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -6722,7 +6720,7 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -6731,7 +6729,7 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -6740,7 +6738,7 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -6749,7 +6747,7 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -6758,7 +6756,7 @@
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -6767,7 +6765,7 @@
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -6776,7 +6774,7 @@
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -6785,7 +6783,7 @@
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -6794,7 +6792,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>

--- a/ARISE/ARISE(D)-OneWay-Wendorf.xlsx
+++ b/ARISE/ARISE(D)-OneWay-Wendorf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\Research\Statistics\BASE\ARISE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\GitHub\BASE\ARISE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD32313-8B76-407D-8C80-FFCF946ECF37}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{DCD32313-8B76-407D-8C80-FFCF946ECF37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C6EF0D0B-20B5-4789-9FF6-C15B80C7B65B}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="21645" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="19" r:id="rId1"/>
@@ -34,7 +34,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="108">
   <si>
     <t>Group</t>
   </si>
@@ -311,9 +313,6 @@
     <t>ARISE: Arelational and Relational Interval Statistics with Excel</t>
   </si>
   <si>
-    <t>Version: 2.20191030</t>
-  </si>
-  <si>
     <t>This module uses raw data as input.</t>
   </si>
   <si>
@@ -353,9 +352,6 @@
     <t>This workbook also provides null hypothesis significance tests for pairwise comparisons.</t>
   </si>
   <si>
-    <t>https://github.com/cwendorf/BASE/tree/master/ARISE</t>
-  </si>
-  <si>
     <t>cwendorf@uwsp.edu</t>
   </si>
   <si>
@@ -368,7 +364,10 @@
     <t>ARISE: Arelational and Relational Interval Statistics with Excel [Excel Spreadsheet].</t>
   </si>
   <si>
-    <t>Retrieved from https://github.com/cwendorf/BASE/tree/master/ARISE</t>
+    <t>Version: 2.20200104</t>
+  </si>
+  <si>
+    <t>https://cwendorf.github.io/BASE/ARISE</t>
   </si>
 </sst>
 </file>
@@ -1219,14 +1218,17 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1243,39 +1245,36 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3461,17 +3460,17 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="9" max="10" width="4.5703125" customWidth="1"/>
-    <col min="18" max="19" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.578125" customWidth="1"/>
+    <col min="9" max="10" width="4.578125" customWidth="1"/>
+    <col min="18" max="19" width="4.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="105"/>
       <c r="B1" s="106"/>
       <c r="C1" s="106"/>
@@ -3481,7 +3480,7 @@
       <c r="G1" s="106"/>
       <c r="H1" s="106"/>
     </row>
-    <row r="2" spans="1:17" s="107" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="107" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B2" s="150" t="s">
         <v>88</v>
       </c>
@@ -3503,7 +3502,7 @@
       <c r="P2" s="151"/>
       <c r="Q2" s="151"/>
     </row>
-    <row r="3" spans="1:17" s="107" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="107" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="105"/>
       <c r="B3" s="152" t="s">
         <v>39</v>
@@ -3517,7 +3516,7 @@
       <c r="I3" s="148"/>
       <c r="J3" s="148"/>
       <c r="K3" s="152" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="L3" s="152"/>
       <c r="M3" s="152"/>
@@ -3526,7 +3525,7 @@
       <c r="P3" s="152"/>
       <c r="Q3" s="152"/>
     </row>
-    <row r="4" spans="1:17" s="112" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" s="112" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="111"/>
       <c r="B4" s="152" t="s">
         <v>38</v>
@@ -3540,7 +3539,7 @@
       <c r="I4" s="148"/>
       <c r="J4" s="148"/>
       <c r="K4" s="153" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L4" s="152"/>
       <c r="M4" s="152"/>
@@ -3549,7 +3548,7 @@
       <c r="P4" s="152"/>
       <c r="Q4" s="152"/>
     </row>
-    <row r="5" spans="1:17" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="105"/>
       <c r="B5" s="106"/>
       <c r="C5" s="106"/>
@@ -3559,7 +3558,7 @@
       <c r="G5" s="106"/>
       <c r="H5" s="106"/>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B6" s="28" t="s">
         <v>72</v>
       </c>
@@ -3575,7 +3574,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="109"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3588,7 +3587,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="109"/>
       <c r="B8" s="1" t="s">
         <v>79</v>
@@ -3605,7 +3604,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="109"/>
       <c r="B9" s="1" t="s">
         <v>80</v>
@@ -3622,7 +3621,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="109"/>
       <c r="B10" s="1" t="s">
         <v>81</v>
@@ -3639,7 +3638,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="109"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
@@ -3648,7 +3647,7 @@
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A12" s="109"/>
       <c r="B12" s="28" t="s">
         <v>78</v>
@@ -3663,7 +3662,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="109"/>
       <c r="B13" s="33"/>
       <c r="E13" s="33"/>
@@ -3672,10 +3671,10 @@
       <c r="H13" s="33"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="109"/>
       <c r="B14" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
@@ -3685,10 +3684,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="109"/>
       <c r="B15" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
@@ -3698,10 +3697,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="109"/>
       <c r="B16" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -3712,9 +3711,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
@@ -3726,7 +3725,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="109"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -3738,7 +3737,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="109"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
@@ -3746,7 +3745,7 @@
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="109"/>
       <c r="B20" s="28" t="s">
         <v>62</v>
@@ -3761,7 +3760,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="109"/>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
@@ -3772,7 +3771,7 @@
       <c r="H21" s="33"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="109"/>
       <c r="B22" s="33" t="s">
         <v>36</v>
@@ -3789,7 +3788,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="109"/>
       <c r="B23" s="33" t="s">
         <v>33</v>
@@ -3806,7 +3805,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="33" t="s">
         <v>30</v>
       </c>
@@ -3822,7 +3821,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="109"/>
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
@@ -3831,16 +3830,16 @@
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
       <c r="K25" s="122" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="109"/>
       <c r="K26" s="122" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="109"/>
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
@@ -3849,7 +3848,7 @@
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A28" s="109"/>
       <c r="B28" s="28" t="s">
         <v>28</v>
@@ -3861,10 +3860,10 @@
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
       <c r="K28" s="149" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="109"/>
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
@@ -3875,7 +3874,7 @@
       <c r="H29" s="33"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="33" t="s">
         <v>27</v>
       </c>
@@ -3886,27 +3885,27 @@
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
       <c r="K30" s="33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="33"/>
       <c r="K31" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="33" t="s">
         <v>25</v>
       </c>
       <c r="K32" s="33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K33" s="122"/>
     </row>
   </sheetData>
@@ -3940,22 +3939,22 @@
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.26171875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="38" customWidth="1"/>
-    <col min="2" max="8" width="11.28515625" style="38"/>
-    <col min="9" max="10" width="4.7109375" style="38" customWidth="1"/>
-    <col min="11" max="13" width="11.28515625" style="39"/>
-    <col min="14" max="17" width="11.28515625" style="38"/>
-    <col min="18" max="18" width="4.7109375" style="38" customWidth="1"/>
-    <col min="19" max="19" width="4.7109375" style="38" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.68359375" style="38" customWidth="1"/>
+    <col min="2" max="8" width="11.26171875" style="38"/>
+    <col min="9" max="10" width="4.68359375" style="38" customWidth="1"/>
+    <col min="11" max="13" width="11.26171875" style="39"/>
+    <col min="14" max="17" width="11.26171875" style="38"/>
+    <col min="18" max="18" width="4.68359375" style="38" customWidth="1"/>
+    <col min="19" max="19" width="4.68359375" style="38" hidden="1" customWidth="1"/>
     <col min="20" max="26" width="0" style="38" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.7109375" style="38" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="4.7109375" style="38" customWidth="1"/>
-    <col min="29" max="16384" width="11.28515625" style="38"/>
+    <col min="27" max="27" width="4.68359375" style="38" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="4.68359375" style="38" customWidth="1"/>
+    <col min="29" max="16384" width="11.26171875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K1" s="90"/>
       <c r="L1" s="89"/>
       <c r="M1" s="89"/>
@@ -3964,36 +3963,36 @@
       <c r="V1"/>
       <c r="W1"/>
     </row>
-    <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="163" t="s">
+    <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B2" s="154" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="K2" s="163" t="s">
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="K2" s="154" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163"/>
-      <c r="T2" s="163" t="s">
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="T2" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="163"/>
-      <c r="V2" s="163"/>
-      <c r="W2" s="163"/>
-      <c r="X2" s="163"/>
-      <c r="Y2" s="163"/>
-      <c r="Z2" s="163"/>
-    </row>
-    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="154"/>
+      <c r="Y2" s="154"/>
+      <c r="Z2" s="154"/>
+    </row>
+    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K3" s="35"/>
       <c r="L3" s="35"/>
       <c r="M3" s="35"/>
@@ -4009,7 +4008,7 @@
       <c r="Y3" s="35"/>
       <c r="Z3" s="35"/>
     </row>
-    <row r="4" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B4" s="72" t="s">
         <v>52</v>
       </c>
@@ -4034,7 +4033,7 @@
       <c r="Y4"/>
       <c r="Z4"/>
     </row>
-    <row r="5" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="73"/>
       <c r="C5" s="73"/>
       <c r="D5" s="73"/>
@@ -4053,7 +4052,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="61" t="s">
         <v>49</v>
       </c>
@@ -4092,16 +4091,16 @@
       <c r="Y6" s="87"/>
       <c r="Z6" s="87"/>
     </row>
-    <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="164" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
+    <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="161" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
       <c r="K7" s="40">
         <v>1</v>
       </c>
@@ -4134,14 +4133,14 @@
       <c r="Y7" s="85"/>
       <c r="Z7" s="85"/>
     </row>
-    <row r="8" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="165"/>
-      <c r="C8" s="165"/>
-      <c r="D8" s="165"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="165"/>
+    <row r="8" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="162"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="162"/>
       <c r="K8" s="39">
         <v>2</v>
       </c>
@@ -4174,7 +4173,7 @@
       <c r="Y8" s="78"/>
       <c r="Z8" s="78"/>
     </row>
-    <row r="9" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="83"/>
       <c r="C9" s="83"/>
       <c r="D9" s="83"/>
@@ -4214,7 +4213,7 @@
       <c r="Y9" s="78"/>
       <c r="Z9" s="78"/>
     </row>
-    <row r="10" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="82" t="s">
         <v>47</v>
       </c>
@@ -4256,16 +4255,16 @@
       <c r="Y10" s="78"/>
       <c r="Z10" s="78"/>
     </row>
-    <row r="11" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="166" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="166"/>
-      <c r="D11" s="166"/>
-      <c r="E11" s="166"/>
-      <c r="F11" s="166"/>
-      <c r="G11" s="166"/>
-      <c r="H11" s="166"/>
+    <row r="11" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="163" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="163"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
       <c r="K11" s="39">
         <v>5</v>
       </c>
@@ -4298,14 +4297,14 @@
       <c r="Y11" s="78"/>
       <c r="Z11" s="78"/>
     </row>
-    <row r="12" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="167"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="167"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="167"/>
-      <c r="H12" s="167"/>
+    <row r="12" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="164"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
       <c r="K12" s="39">
         <v>6</v>
       </c>
@@ -4337,14 +4336,14 @@
       <c r="Y12" s="76"/>
       <c r="Z12" s="76"/>
     </row>
-    <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="167"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
+    <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="164"/>
+      <c r="C13" s="164"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="164"/>
       <c r="K13" s="39">
         <v>7</v>
       </c>
@@ -4363,14 +4362,14 @@
       <c r="Y13" s="75"/>
       <c r="Z13" s="75"/>
     </row>
-    <row r="14" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="168"/>
-      <c r="C14" s="168"/>
-      <c r="D14" s="168"/>
-      <c r="E14" s="168"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="168"/>
+    <row r="14" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B14" s="165"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="165"/>
       <c r="K14" s="39">
         <v>8</v>
       </c>
@@ -4385,7 +4384,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="73"/>
       <c r="C15" s="73"/>
       <c r="D15" s="73"/>
@@ -4410,7 +4409,7 @@
       <c r="Y15" s="68"/>
       <c r="Z15" s="67"/>
     </row>
-    <row r="16" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B16" s="72" t="s">
         <v>46</v>
       </c>
@@ -4450,7 +4449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B17" s="70"/>
       <c r="C17" s="70"/>
       <c r="D17" s="69"/>
@@ -4477,7 +4476,7 @@
       <c r="Y17" s="64"/>
       <c r="Z17" s="63"/>
     </row>
-    <row r="18" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B18" s="169" t="s">
         <v>44</v>
       </c>
@@ -4510,15 +4509,15 @@
       <c r="Y18" s="59"/>
       <c r="Z18" s="55"/>
     </row>
-    <row r="19" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="160" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="160"/>
-      <c r="D19" s="162"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="161"/>
+    <row r="19" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="166" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="166"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="168"/>
       <c r="H19" s="58"/>
       <c r="K19" s="39">
         <v>13</v>
@@ -4540,15 +4539,15 @@
       <c r="Y19" s="59"/>
       <c r="Z19" s="55"/>
     </row>
-    <row r="20" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="157" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="157"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="159"/>
+    <row r="20" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B20" s="158" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="158"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="160"/>
       <c r="H20" s="50"/>
       <c r="K20" s="39">
         <v>14</v>
@@ -4570,7 +4569,7 @@
       </c>
       <c r="Z20" s="55"/>
     </row>
-    <row r="21" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B21" s="62"/>
       <c r="C21" s="62"/>
       <c r="D21" s="62"/>
@@ -4598,7 +4597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B22" s="169" t="str">
         <f>IF(B19="","Factor",B19)</f>
         <v>Manipulation</v>
@@ -4631,15 +4630,15 @@
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
     </row>
-    <row r="23" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="160" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="161"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="161"/>
+    <row r="23" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B23" s="166" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="168"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="166"/>
+      <c r="G23" s="168"/>
       <c r="H23" s="58">
         <f>IF(B23="","",1)</f>
         <v>1</v>
@@ -4664,15 +4663,15 @@
       <c r="Y23" s="46"/>
       <c r="Z23" s="29"/>
     </row>
-    <row r="24" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="154" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="154"/>
+    <row r="24" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B24" s="156" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="156"/>
       <c r="D24" s="155"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="156"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="157"/>
       <c r="H24" s="52">
         <f>IF(B24="","",2)</f>
         <v>2</v>
@@ -4695,15 +4694,15 @@
       <c r="Y24" s="46"/>
       <c r="Z24" s="29"/>
     </row>
-    <row r="25" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="154" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="154"/>
+    <row r="25" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B25" s="156" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="156"/>
       <c r="D25" s="155"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="156"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="157"/>
       <c r="H25" s="52">
         <f>IF(B25="","",3)</f>
         <v>3</v>
@@ -4740,15 +4739,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="154" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="154"/>
+    <row r="26" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="156" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="156"/>
       <c r="D26" s="155"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="157"/>
       <c r="H26" s="51">
         <f>IF(B26="","",4)</f>
         <v>4</v>
@@ -4790,15 +4789,15 @@
         <v>0.36432926829268281</v>
       </c>
     </row>
-    <row r="27" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="157" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="157"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="159"/>
+    <row r="27" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B27" s="158" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="158"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="160"/>
       <c r="H27" s="50">
         <f>IF(B27="","",5)</f>
         <v>5</v>
@@ -4832,7 +4831,7 @@
       <c r="Y27" s="11"/>
       <c r="Z27" s="12"/>
     </row>
-    <row r="28" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B28" s="48"/>
       <c r="C28" s="48"/>
       <c r="D28" s="48"/>
@@ -4869,7 +4868,7 @@
       <c r="Y28" s="41"/>
       <c r="Z28" s="31"/>
     </row>
-    <row r="29" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K29" s="39">
         <v>23</v>
       </c>
@@ -4887,7 +4886,7 @@
       <c r="Y29" s="30"/>
       <c r="Z29" s="30"/>
     </row>
-    <row r="30" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K30" s="39">
         <v>24</v>
       </c>
@@ -4898,7 +4897,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K31" s="39">
         <v>25</v>
       </c>
@@ -4910,7 +4909,7 @@
       </c>
       <c r="S31" s="29"/>
     </row>
-    <row r="32" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K32" s="39">
         <v>26</v>
       </c>
@@ -4922,7 +4921,7 @@
       </c>
       <c r="S32" s="29"/>
     </row>
-    <row r="33" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K33" s="39">
         <v>27</v>
       </c>
@@ -4934,7 +4933,7 @@
       </c>
       <c r="S33" s="29"/>
     </row>
-    <row r="34" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K34" s="39">
         <v>28</v>
       </c>
@@ -4946,7 +4945,7 @@
       </c>
       <c r="S34" s="29"/>
     </row>
-    <row r="35" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K35" s="39">
         <v>29</v>
       </c>
@@ -4958,7 +4957,7 @@
       </c>
       <c r="S35" s="29"/>
     </row>
-    <row r="36" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K36" s="39">
         <v>30</v>
       </c>
@@ -4969,7 +4968,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K37" s="39">
         <v>31</v>
       </c>
@@ -4980,7 +4979,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K38" s="39">
         <v>32</v>
       </c>
@@ -4991,7 +4990,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K39" s="39">
         <v>33</v>
       </c>
@@ -5002,7 +5001,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K40" s="39">
         <v>34</v>
       </c>
@@ -5013,7 +5012,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K41" s="39">
         <v>35</v>
       </c>
@@ -5024,7 +5023,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K42" s="39">
         <v>36</v>
       </c>
@@ -5035,7 +5034,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K43" s="39">
         <v>37</v>
       </c>
@@ -5046,7 +5045,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K44" s="39">
         <v>38</v>
       </c>
@@ -5057,7 +5056,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K45" s="39">
         <v>39</v>
       </c>
@@ -5068,7 +5067,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K46" s="39">
         <v>40</v>
       </c>
@@ -5079,7 +5078,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K47" s="39">
         <v>41</v>
       </c>
@@ -5090,7 +5089,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K48" s="39">
         <v>42</v>
       </c>
@@ -5101,7 +5100,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K49" s="39">
         <v>43</v>
       </c>
@@ -5112,7 +5111,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K50" s="39">
         <v>44</v>
       </c>
@@ -5123,7 +5122,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K51" s="39">
         <v>45</v>
       </c>
@@ -5134,7 +5133,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K52" s="39">
         <v>46</v>
       </c>
@@ -5145,7 +5144,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K53" s="39">
         <v>47</v>
       </c>
@@ -5156,7 +5155,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K54" s="39">
         <v>48</v>
       </c>
@@ -5167,7 +5166,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K55" s="39">
         <v>49</v>
       </c>
@@ -5178,7 +5177,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K56" s="39">
         <v>50</v>
       </c>
@@ -5193,6 +5192,15 @@
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <autoFilter ref="K6:M6" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="21">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="T2:Z2"/>
     <mergeCell ref="K2:Q2"/>
     <mergeCell ref="D25:G25"/>
@@ -5205,15 +5213,6 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.7" bottom="0.7" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5231,17 +5230,17 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="123" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="123"/>
-    <col min="9" max="10" width="4.5703125" style="123" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="123"/>
-    <col min="18" max="19" width="4.5703125" style="123" customWidth="1"/>
-    <col min="20" max="16384" width="11.140625" style="123"/>
+    <col min="1" max="1" width="4.578125" style="123" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="123"/>
+    <col min="9" max="10" width="4.578125" style="123" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="123"/>
+    <col min="18" max="19" width="4.578125" style="123" customWidth="1"/>
+    <col min="20" max="16384" width="11.15625" style="123"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B2" s="171" t="s">
         <v>82</v>
       </c>
@@ -5261,7 +5260,7 @@
       <c r="P2" s="171"/>
       <c r="Q2" s="171"/>
     </row>
-    <row r="4" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B4" s="124" t="s">
         <v>76</v>
       </c>
@@ -5286,7 +5285,7 @@
       <c r="P4" s="123"/>
       <c r="Q4" s="123"/>
     </row>
-    <row r="5" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="123"/>
       <c r="C5" s="123"/>
       <c r="D5" s="123"/>
@@ -5299,7 +5298,7 @@
       <c r="P5" s="123"/>
       <c r="Q5" s="123"/>
     </row>
-    <row r="6" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="127" t="s">
         <v>0</v>
       </c>
@@ -5341,7 +5340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="129" t="str">
         <f>IF(C7="","",IF(Data!B23="","1",Data!B23))</f>
         <v>One</v>
@@ -5400,7 +5399,7 @@
         <v>5.4537415263324604E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="133" t="str">
         <f>IF(C8="","",IF(Data!B24="","2",Data!B24))</f>
         <v>Two</v>
@@ -5459,7 +5458,7 @@
         <v>0.57076596523986223</v>
       </c>
     </row>
-    <row r="9" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="133" t="str">
         <f>IF(C9="","",IF(Data!B25="","3",Data!B25))</f>
         <v>Three</v>
@@ -5518,7 +5517,7 @@
         <v>0.13818475535118313</v>
       </c>
     </row>
-    <row r="10" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="133" t="str">
         <f>IF(C10="","",IF(Data!B26="","4",Data!B26))</f>
         <v>Four</v>
@@ -5577,7 +5576,7 @@
         <v>1.8109821663250519E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="147" t="str">
         <f>IF(C11="","",IF(Data!B27="","5",Data!B27))</f>
         <v>Five</v>
@@ -5636,7 +5635,7 @@
         <v>1.8719423349875645E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="123"/>
       <c r="C12" s="123"/>
       <c r="D12" s="123"/>
@@ -5654,7 +5653,7 @@
       <c r="P12" s="123"/>
       <c r="Q12" s="123"/>
     </row>
-    <row r="13" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B13" s="124" t="s">
         <v>77</v>
       </c>
@@ -5676,7 +5675,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="123"/>
       <c r="C14" s="123"/>
       <c r="D14" s="123"/>
@@ -5694,7 +5693,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C15" s="14" t="s">
         <v>17</v>
       </c>
@@ -5730,7 +5729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="13" t="s">
         <v>0</v>
       </c>
@@ -5780,7 +5779,7 @@
         <v>0.10703969299475195</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="7">
         <v>1.1499999999999999</v>
       </c>
@@ -5829,7 +5828,7 @@
         <v>3.1481211264458582E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="7">
         <v>1.1499999999999999</v>
       </c>
@@ -5878,7 +5877,7 @@
         <v>1.2630601761004217E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="7">
         <v>1.1499999999999999</v>
       </c>
@@ -5925,7 +5924,7 @@
         <v>0.53269025785809743</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="7">
         <v>2.15</v>
       </c>
@@ -5972,7 +5971,7 @@
         <v>0.53269025785809743</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="7">
         <v>2.15</v>
       </c>
@@ -6019,7 +6018,7 @@
         <v>4.8117695881367877E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="7">
         <v>2.15</v>
       </c>
@@ -6066,7 +6065,7 @@
         <v>3.1481211264458582E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="7">
         <v>3.15</v>
       </c>
@@ -6113,7 +6112,7 @@
         <v>0.15502236496536209</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="7">
         <v>3.15</v>
       </c>
@@ -6160,7 +6159,7 @@
         <v>8.2268572219328304E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" s="7">
         <v>3.15</v>
       </c>
@@ -6207,7 +6206,7 @@
         <v>&lt;0.001</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="7">
         <v>4.1500000000000004</v>
       </c>
@@ -6236,7 +6235,7 @@
       <c r="P26" s="24"/>
       <c r="Q26" s="24"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B27" s="6">
         <v>4.1500000000000004</v>
       </c>
@@ -6261,7 +6260,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B28" s="6">
         <v>4.1500000000000004</v>
       </c>
@@ -6283,7 +6282,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B29" s="6">
         <v>5.15</v>
       </c>
@@ -6329,7 +6328,7 @@
         <v>p</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="6">
         <v>5.15</v>
       </c>
@@ -6374,7 +6373,7 @@
         <v>&lt; 0.001</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3"/>
       <c r="B31" s="6">
         <v>5.15</v>
@@ -6414,7 +6413,7 @@
       <c r="P31" s="130"/>
       <c r="Q31" s="142"/>
     </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="3"/>
       <c r="B32" s="7"/>
       <c r="C32" s="6"/>
@@ -6438,10 +6437,10 @@
       <c r="P32" s="145"/>
       <c r="Q32" s="145"/>
     </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3"/>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B36" s="28"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
@@ -6450,7 +6449,7 @@
       <c r="G36" s="29"/>
       <c r="H36" s="29"/>
     </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
@@ -6459,7 +6458,7 @@
       <c r="G37" s="33"/>
       <c r="H37" s="33"/>
     </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="14"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
@@ -6468,7 +6467,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -6477,7 +6476,7 @@
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -6486,7 +6485,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="7"/>
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
@@ -6495,7 +6494,7 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -6504,7 +6503,7 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -6513,7 +6512,7 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="7"/>
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
@@ -6522,7 +6521,7 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -6531,7 +6530,7 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -6540,7 +6539,7 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="7"/>
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
@@ -6549,7 +6548,7 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -6558,7 +6557,7 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -6567,7 +6566,7 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="7"/>
@@ -6576,7 +6575,7 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="6"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -6585,7 +6584,7 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="6"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -6594,7 +6593,7 @@
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
@@ -6603,7 +6602,7 @@
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="6"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -6612,7 +6611,7 @@
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -6621,7 +6620,7 @@
       <c r="G55" s="34"/>
       <c r="H55" s="34"/>
     </row>
-    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="15"/>
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
@@ -6630,7 +6629,7 @@
       <c r="G56" s="33"/>
       <c r="H56" s="33"/>
     </row>
-    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -6639,7 +6638,7 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -6648,7 +6647,7 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -6657,7 +6656,7 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -6666,7 +6665,7 @@
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -6675,7 +6674,7 @@
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -6684,7 +6683,7 @@
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -6693,7 +6692,7 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -6702,7 +6701,7 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -6711,7 +6710,7 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -6720,7 +6719,7 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -6729,7 +6728,7 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -6738,7 +6737,7 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -6747,7 +6746,7 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -6756,7 +6755,7 @@
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -6765,7 +6764,7 @@
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -6774,7 +6773,7 @@
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -6783,7 +6782,7 @@
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -6792,7 +6791,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>

--- a/ARISE/ARISE(D)-OneWay-Wendorf.xlsx
+++ b/ARISE/ARISE(D)-OneWay-Wendorf.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\GitHub\BASE\ARISE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/ARISE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{DCD32313-8B76-407D-8C80-FFCF946ECF37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C6EF0D0B-20B5-4789-9FF6-C15B80C7B65B}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{DCD32313-8B76-407D-8C80-FFCF946ECF37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4F3B9457-9E2B-43F9-990F-50E944BC2B79}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -295,9 +295,6 @@
     <t>Estimation Approach</t>
   </si>
   <si>
-    <t>http://www4.uwsp.edu/pych/cw</t>
-  </si>
-  <si>
     <t>For Hypothesis Tests and Confidence Intervals</t>
   </si>
   <si>
@@ -368,6 +365,9 @@
   </si>
   <si>
     <t>https://cwendorf.github.io/BASE/ARISE</t>
+  </si>
+  <si>
+    <t>http://cwendorf.github.io</t>
   </si>
 </sst>
 </file>
@@ -1218,17 +1218,14 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1245,6 +1242,21 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -1263,18 +1275,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3460,7 +3460,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="2" spans="1:17" s="107" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B2" s="150" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="150"/>
       <c r="D2" s="150"/>
@@ -3516,7 +3516,7 @@
       <c r="I3" s="148"/>
       <c r="J3" s="148"/>
       <c r="K3" s="152" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L3" s="152"/>
       <c r="M3" s="152"/>
@@ -3539,7 +3539,7 @@
       <c r="I4" s="148"/>
       <c r="J4" s="148"/>
       <c r="K4" s="153" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L4" s="152"/>
       <c r="M4" s="152"/>
@@ -3571,7 +3571,7 @@
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
       <c r="K6" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3601,7 +3601,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3618,7 +3618,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3635,7 +3635,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3674,7 +3674,7 @@
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="109"/>
       <c r="B14" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
@@ -3687,7 +3687,7 @@
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="109"/>
       <c r="B15" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
@@ -3700,7 +3700,7 @@
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="109"/>
       <c r="B16" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
@@ -3830,13 +3830,13 @@
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
       <c r="K25" s="122" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="109"/>
       <c r="K26" s="122" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3860,7 +3860,7 @@
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
       <c r="K28" s="149" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3885,7 +3885,7 @@
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
       <c r="K30" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="C31" s="33"/>
       <c r="K31" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3902,7 +3902,7 @@
         <v>25</v>
       </c>
       <c r="K32" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3964,33 +3964,33 @@
       <c r="W1"/>
     </row>
     <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="K2" s="154" t="s">
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="K2" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="T2" s="154" t="s">
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="163"/>
+      <c r="T2" s="163" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="154"/>
-      <c r="V2" s="154"/>
-      <c r="W2" s="154"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="154"/>
-      <c r="Z2" s="154"/>
+      <c r="U2" s="163"/>
+      <c r="V2" s="163"/>
+      <c r="W2" s="163"/>
+      <c r="X2" s="163"/>
+      <c r="Y2" s="163"/>
+      <c r="Z2" s="163"/>
     </row>
     <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K3" s="35"/>
@@ -4092,15 +4092,15 @@
       <c r="Z6" s="87"/>
     </row>
     <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="161" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="161"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
+      <c r="B7" s="164" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
       <c r="K7" s="40">
         <v>1</v>
       </c>
@@ -4134,13 +4134,13 @@
       <c r="Z7" s="85"/>
     </row>
     <row r="8" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="162"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="162"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
       <c r="K8" s="39">
         <v>2</v>
       </c>
@@ -4256,15 +4256,15 @@
       <c r="Z10" s="78"/>
     </row>
     <row r="11" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="163" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="163"/>
-      <c r="D11" s="163"/>
-      <c r="E11" s="163"/>
-      <c r="F11" s="163"/>
-      <c r="G11" s="163"/>
-      <c r="H11" s="163"/>
+      <c r="B11" s="166" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="166"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="166"/>
       <c r="K11" s="39">
         <v>5</v>
       </c>
@@ -4298,13 +4298,13 @@
       <c r="Z11" s="78"/>
     </row>
     <row r="12" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="164"/>
-      <c r="C12" s="164"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
+      <c r="B12" s="167"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="167"/>
+      <c r="F12" s="167"/>
+      <c r="G12" s="167"/>
+      <c r="H12" s="167"/>
       <c r="K12" s="39">
         <v>6</v>
       </c>
@@ -4337,13 +4337,13 @@
       <c r="Z12" s="76"/>
     </row>
     <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="164"/>
-      <c r="C13" s="164"/>
-      <c r="D13" s="164"/>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="164"/>
+      <c r="B13" s="167"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="167"/>
       <c r="K13" s="39">
         <v>7</v>
       </c>
@@ -4363,13 +4363,13 @@
       <c r="Z13" s="75"/>
     </row>
     <row r="14" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B14" s="165"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="165"/>
-      <c r="E14" s="165"/>
-      <c r="F14" s="165"/>
-      <c r="G14" s="165"/>
-      <c r="H14" s="165"/>
+      <c r="B14" s="168"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="168"/>
+      <c r="E14" s="168"/>
+      <c r="F14" s="168"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="168"/>
       <c r="K14" s="39">
         <v>8</v>
       </c>
@@ -4510,14 +4510,14 @@
       <c r="Z18" s="55"/>
     </row>
     <row r="19" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="166" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="166"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="166"/>
-      <c r="F19" s="166"/>
-      <c r="G19" s="168"/>
+      <c r="B19" s="160" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="160"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="161"/>
       <c r="H19" s="58"/>
       <c r="K19" s="39">
         <v>13</v>
@@ -4540,14 +4540,14 @@
       <c r="Z19" s="55"/>
     </row>
     <row r="20" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B20" s="158" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="158"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="160"/>
+      <c r="B20" s="157" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="157"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="159"/>
       <c r="H20" s="50"/>
       <c r="K20" s="39">
         <v>14</v>
@@ -4631,14 +4631,14 @@
       <c r="Z22" s="24"/>
     </row>
     <row r="23" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B23" s="166" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="168"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="166"/>
-      <c r="F23" s="166"/>
-      <c r="G23" s="168"/>
+      <c r="B23" s="160" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="161"/>
+      <c r="D23" s="162"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="161"/>
       <c r="H23" s="58">
         <f>IF(B23="","",1)</f>
         <v>1</v>
@@ -4664,14 +4664,14 @@
       <c r="Z23" s="29"/>
     </row>
     <row r="24" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B24" s="156" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="156"/>
+      <c r="B24" s="154" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="154"/>
       <c r="D24" s="155"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="157"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="156"/>
       <c r="H24" s="52">
         <f>IF(B24="","",2)</f>
         <v>2</v>
@@ -4695,14 +4695,14 @@
       <c r="Z24" s="29"/>
     </row>
     <row r="25" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B25" s="156" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="156"/>
+      <c r="B25" s="154" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="154"/>
       <c r="D25" s="155"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="157"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="156"/>
       <c r="H25" s="52">
         <f>IF(B25="","",3)</f>
         <v>3</v>
@@ -4740,14 +4740,14 @@
       </c>
     </row>
     <row r="26" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="156" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="156"/>
+      <c r="B26" s="154" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="154"/>
       <c r="D26" s="155"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="157"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="156"/>
       <c r="H26" s="51">
         <f>IF(B26="","",4)</f>
         <v>4</v>
@@ -4790,14 +4790,14 @@
       </c>
     </row>
     <row r="27" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B27" s="158" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="158"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="160"/>
+      <c r="B27" s="157" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="157"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="159"/>
       <c r="H27" s="50">
         <f>IF(B27="","",5)</f>
         <v>5</v>
@@ -5192,15 +5192,6 @@
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <autoFilter ref="K6:M6" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="21">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="B25:C25"/>
     <mergeCell ref="T2:Z2"/>
     <mergeCell ref="K2:Q2"/>
     <mergeCell ref="D25:G25"/>
@@ -5213,6 +5204,15 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.7" bottom="0.7" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ARISE/ARISE(D)-OneWay-Wendorf.xlsx
+++ b/ARISE/ARISE(D)-OneWay-Wendorf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/ARISE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/Research/Statistics/BASE/ARISE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{DCD32313-8B76-407D-8C80-FFCF946ECF37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4F3B9457-9E2B-43F9-990F-50E944BC2B79}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{DCD32313-8B76-407D-8C80-FFCF946ECF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40A9E2EF-BE2E-41E1-B84D-C780421C607E}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="19" r:id="rId1"/>
@@ -355,9 +355,6 @@
     <t>How to Cite</t>
   </si>
   <si>
-    <t>Wendorf, C. A. (2016).</t>
-  </si>
-  <si>
     <t>ARISE: Arelational and Relational Interval Statistics with Excel [Excel Spreadsheet].</t>
   </si>
   <si>
@@ -368,6 +365,9 @@
   </si>
   <si>
     <t>http://cwendorf.github.io</t>
+  </si>
+  <si>
+    <t>Wendorf, C. A. (2020).</t>
   </si>
 </sst>
 </file>
@@ -759,98 +759,88 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -867,228 +857,170 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -1097,21 +1029,10 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1126,106 +1047,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1242,48 +1151,42 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3068,7 +2971,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Theory"/>
@@ -3085,7 +2988,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Intro"/>
@@ -3114,7 +3017,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Intro"/>
@@ -3459,123 +3362,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.578125" customWidth="1"/>
-    <col min="9" max="10" width="4.578125" customWidth="1"/>
-    <col min="18" max="19" width="4.578125" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="9" max="10" width="4.5546875" customWidth="1"/>
+    <col min="18" max="19" width="4.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="105"/>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-    </row>
-    <row r="2" spans="1:17" s="107" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="150" t="s">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="151" t="s">
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="151"/>
-      <c r="Q2" s="151"/>
-    </row>
-    <row r="3" spans="1:17" s="107" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A3" s="105"/>
-      <c r="B3" s="152" t="s">
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="27"/>
+      <c r="B3" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="152" t="s">
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="119" t="s">
+        <v>104</v>
+      </c>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+    </row>
+    <row r="4" spans="1:17" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="85"/>
+      <c r="B4" s="119" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="152"/>
-      <c r="O3" s="152"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-    </row>
-    <row r="4" spans="1:17" s="112" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="111"/>
-      <c r="B4" s="152" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="153" t="s">
-        <v>106</v>
-      </c>
-      <c r="L4" s="152"/>
-      <c r="M4" s="152"/>
-      <c r="N4" s="152"/>
-      <c r="O4" s="152"/>
-      <c r="P4" s="152"/>
-      <c r="Q4" s="152"/>
-    </row>
-    <row r="5" spans="1:17" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="105"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="28" t="s">
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="28" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="23" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="109"/>
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -3587,8 +3490,8 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="109"/>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27"/>
       <c r="B8" s="1" t="s">
         <v>79</v>
       </c>
@@ -3600,12 +3503,12 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="109"/>
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27"/>
       <c r="B9" s="1" t="s">
         <v>80</v>
       </c>
@@ -3617,12 +3520,12 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="29" t="s">
+      <c r="K9" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="109"/>
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27"/>
       <c r="B10" s="1" t="s">
         <v>81</v>
       </c>
@@ -3634,279 +3537,279 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="109"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="109"/>
-      <c r="B12" s="28" t="s">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
+      <c r="B12" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="K12" s="28" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="K12" s="23" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="109"/>
-      <c r="B13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="K13" s="33"/>
-    </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="109"/>
-      <c r="B14" s="33" t="s">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="K13" s="27"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="K14" s="33" t="s">
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="K14" s="27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="109"/>
-      <c r="B15" s="33" t="s">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="K15" s="16" t="s">
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="K15" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="109"/>
-      <c r="B16" s="33" t="s">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="K16" s="110" t="s">
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="K16" s="84" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="33" t="s">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="K17" s="36" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="K17" s="30" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="109"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="K18" s="36" t="s">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="K18" s="30" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="109"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="109"/>
-      <c r="B20" s="28" t="s">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27"/>
+      <c r="B20" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="K20" s="149" t="s">
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="K20" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="109"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="K21" s="33"/>
-    </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="109"/>
-      <c r="B22" s="33" t="s">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="K21" s="27"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="K22" s="33" t="s">
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="K22" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="109"/>
-      <c r="B23" s="33" t="s">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="K23" s="33" t="s">
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="K23" s="27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="33" t="s">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="K24" s="33" t="s">
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="K24" s="27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="109"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="K25" s="122" t="s">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="K25" s="93" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="109"/>
-      <c r="K26" s="122" t="s">
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="27"/>
+      <c r="K26" s="93" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="27"/>
+      <c r="B28" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="K28" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="K29" s="27"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="K30" s="27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="109"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-    </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="109"/>
-      <c r="B28" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="K28" s="149" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="109"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="K29" s="33"/>
-    </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="K30" s="33" t="s">
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="K31" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="33"/>
-      <c r="K31" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="33" t="s">
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="K32" s="33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K33" s="122"/>
+      <c r="K32" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K33" s="93"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1"/>
@@ -3939,1252 +3842,1210 @@
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.26171875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.68359375" style="38" customWidth="1"/>
-    <col min="2" max="8" width="11.26171875" style="38"/>
-    <col min="9" max="10" width="4.68359375" style="38" customWidth="1"/>
-    <col min="11" max="13" width="11.26171875" style="39"/>
-    <col min="14" max="17" width="11.26171875" style="38"/>
-    <col min="18" max="18" width="4.68359375" style="38" customWidth="1"/>
-    <col min="19" max="19" width="4.68359375" style="38" hidden="1" customWidth="1"/>
-    <col min="20" max="26" width="0" style="38" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.68359375" style="38" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="4.68359375" style="38" customWidth="1"/>
-    <col min="29" max="16384" width="11.26171875" style="38"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="9" max="10" width="4.6640625" customWidth="1"/>
+    <col min="11" max="13" width="11.21875" style="31"/>
+    <col min="18" max="18" width="4.6640625" customWidth="1"/>
+    <col min="19" max="19" width="4.6640625" hidden="1" customWidth="1"/>
+    <col min="20" max="26" width="0" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="4.6640625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K1" s="90"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="T1"/>
-      <c r="U1"/>
-      <c r="V1"/>
-      <c r="W1"/>
-    </row>
-    <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="163" t="s">
+    <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="60"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+    </row>
+    <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="K2" s="163" t="s">
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="K2" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163"/>
-      <c r="T2" s="163" t="s">
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="T2" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="163"/>
-      <c r="V2" s="163"/>
-      <c r="W2" s="163"/>
-      <c r="X2" s="163"/>
-      <c r="Y2" s="163"/>
-      <c r="Z2" s="163"/>
-    </row>
-    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-    </row>
-    <row r="4" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="72" t="s">
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="118"/>
+      <c r="X2" s="118"/>
+      <c r="Y2" s="118"/>
+      <c r="Z2" s="118"/>
+    </row>
+    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+    </row>
+    <row r="4" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="K4" s="72" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="K4" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="T4" s="5" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="T4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-    </row>
-    <row r="5" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-    </row>
-    <row r="6" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="61" t="s">
+    </row>
+    <row r="5" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+    </row>
+    <row r="6" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="K6" s="88" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="K6" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="88" t="str">
+      <c r="L6" s="72" t="str">
         <f>IF(B19="","",B19)</f>
         <v>Manipulation</v>
       </c>
-      <c r="M6" s="88" t="str">
+      <c r="M6" s="72" t="str">
         <f>IF(B20="","",B20)</f>
         <v>Outcome</v>
       </c>
-      <c r="T6" s="23" t="s">
+      <c r="T6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="U6" s="23" t="s">
+      <c r="U6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="V6" s="23" t="s">
+      <c r="V6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="W6" s="23" t="s">
+      <c r="W6" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="X6" s="25" t="s">
+      <c r="X6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="Y6" s="87"/>
-      <c r="Z6" s="87"/>
-    </row>
-    <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="164" t="s">
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+    </row>
+    <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
-      <c r="K7" s="40">
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="K7" s="32">
         <v>1</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="32">
         <v>1</v>
       </c>
-      <c r="M7" s="39">
+      <c r="M7" s="31">
         <v>61</v>
       </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="17">
+      <c r="T7" s="13">
         <v>1</v>
       </c>
-      <c r="U7" s="19">
+      <c r="U7" s="15">
         <f>IFERROR(AVERAGEIFS($M:$M,$L:$L,$T7),"")</f>
         <v>67</v>
       </c>
-      <c r="V7" s="19">
+      <c r="V7" s="15">
         <f t="array" ref="V7">IFERROR(STDEV(IF($L:$L=$T7,$M:$M)),"")</f>
         <v>4.2946995755750415</v>
       </c>
-      <c r="W7" s="86">
+      <c r="W7" s="70">
         <f>IF(COUNTIF($L:$L,$T7)&lt;1,"",COUNTIF($L:$L,$T7))</f>
         <v>10</v>
       </c>
-      <c r="X7" s="18">
+      <c r="X7" s="14">
         <f t="shared" ref="X7:X12" si="0">IFERROR(V7/SQRT(W7),"")</f>
         <v>1.3581032524975574</v>
       </c>
-      <c r="Y7" s="85"/>
-      <c r="Z7" s="85"/>
-    </row>
-    <row r="8" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="165"/>
-      <c r="C8" s="165"/>
-      <c r="D8" s="165"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="165"/>
-      <c r="K8" s="39">
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+    </row>
+    <row r="8" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="K8" s="31">
         <v>2</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="31">
         <v>1</v>
       </c>
-      <c r="M8" s="39">
+      <c r="M8" s="31">
         <v>64</v>
       </c>
-      <c r="S8" s="2"/>
-      <c r="T8" s="81">
+      <c r="T8" s="49">
         <v>2</v>
       </c>
-      <c r="U8" s="79">
+      <c r="U8" s="65">
         <f>IFERROR(AVERAGEIFS($M:$M,$L:$L,$T8),"")</f>
         <v>71</v>
       </c>
-      <c r="V8" s="79">
+      <c r="V8" s="65">
         <f t="array" ref="V8">IFERROR(STDEV(IF($L:$L=$T8,$M:$M)),"")</f>
         <v>5.3748384988656994</v>
       </c>
-      <c r="W8" s="80">
+      <c r="W8" s="9">
         <f>IF(COUNTIF($L:$L,$T8)&lt;1,"",COUNTIF($L:$L,$T8))</f>
         <v>10</v>
       </c>
-      <c r="X8" s="56">
+      <c r="X8" s="48">
         <f t="shared" si="0"/>
         <v>1.6996731711975948</v>
       </c>
-      <c r="Y8" s="78"/>
-      <c r="Z8" s="78"/>
-    </row>
-    <row r="9" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="K9" s="39">
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="64"/>
+    </row>
+    <row r="9" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="K9" s="31">
         <v>3</v>
       </c>
-      <c r="L9" s="39">
+      <c r="L9" s="31">
         <v>1</v>
       </c>
-      <c r="M9" s="39">
+      <c r="M9" s="31">
         <v>72</v>
       </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="81">
+      <c r="T9" s="49">
         <v>3</v>
       </c>
-      <c r="U9" s="79">
+      <c r="U9" s="65">
         <f>IFERROR(AVERAGEIFS($M:$M,$L:$L,$T9),"")</f>
         <v>72.5</v>
       </c>
-      <c r="V9" s="79">
+      <c r="V9" s="65">
         <f t="array" ref="V9">IFERROR(STDEV(IF($L:$L=$T9,$M:$M)),"")</f>
         <v>4.85912657903775</v>
       </c>
-      <c r="W9" s="80">
+      <c r="W9" s="9">
         <f>IF(COUNTIF($L:$L,$T9)&lt;1,"",COUNTIF($L:$L,$T9))</f>
         <v>10</v>
       </c>
-      <c r="X9" s="56">
+      <c r="X9" s="48">
         <f t="shared" si="0"/>
         <v>1.5365907428821477</v>
       </c>
-      <c r="Y9" s="78"/>
-      <c r="Z9" s="78"/>
-    </row>
-    <row r="10" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="82" t="s">
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+    </row>
+    <row r="10" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="K10" s="39">
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="K10" s="31">
         <v>4</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="31">
         <v>1</v>
       </c>
-      <c r="M10" s="39">
+      <c r="M10" s="31">
         <v>64</v>
       </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="81">
+      <c r="T10" s="49">
         <v>4</v>
       </c>
-      <c r="U10" s="79">
+      <c r="U10" s="65">
         <f>IFERROR(AVERAGEIFS($M:$M,$L:$L,$T10),"")</f>
         <v>76</v>
       </c>
-      <c r="V10" s="79">
+      <c r="V10" s="65">
         <f t="array" ref="V10">IFERROR(STDEV(IF($L:$L=$T10,$M:$M)),"")</f>
         <v>6.5828058860438334</v>
       </c>
-      <c r="W10" s="80">
+      <c r="W10" s="9">
         <f>IF(COUNTIF($L:$L,$T10)&lt;1,"",COUNTIF($L:$L,$T10))</f>
         <v>10</v>
       </c>
-      <c r="X10" s="56">
+      <c r="X10" s="48">
         <f t="shared" si="0"/>
         <v>2.0816659994661326</v>
       </c>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="78"/>
-    </row>
-    <row r="11" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="166" t="s">
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+    </row>
+    <row r="11" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="129" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="166"/>
-      <c r="D11" s="166"/>
-      <c r="E11" s="166"/>
-      <c r="F11" s="166"/>
-      <c r="G11" s="166"/>
-      <c r="H11" s="166"/>
-      <c r="K11" s="39">
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="K11" s="31">
         <v>5</v>
       </c>
-      <c r="L11" s="39">
+      <c r="L11" s="31">
         <v>1</v>
       </c>
-      <c r="M11" s="39">
+      <c r="M11" s="31">
         <v>64</v>
       </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="81">
+      <c r="T11" s="49">
         <v>5</v>
       </c>
-      <c r="U11" s="79">
+      <c r="U11" s="65">
         <f>IFERROR(AVERAGEIFS($M:$M,$L:$L,$T11),"")</f>
         <v>65.5</v>
       </c>
-      <c r="V11" s="79">
+      <c r="V11" s="65">
         <f t="array" ref="V11">IFERROR(STDEV(IF($L:$L=$T11,$M:$M)),"")</f>
         <v>4.9721446300587662</v>
       </c>
-      <c r="W11" s="80">
+      <c r="W11" s="9">
         <f>IF(COUNTIF($L:$L,$T11)&lt;1,"",COUNTIF($L:$L,$T11))</f>
         <v>10</v>
       </c>
-      <c r="X11" s="56">
+      <c r="X11" s="48">
         <f t="shared" si="0"/>
         <v>1.5723301886761005</v>
       </c>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="78"/>
-    </row>
-    <row r="12" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="167"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="167"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="167"/>
-      <c r="H12" s="167"/>
-      <c r="K12" s="39">
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="64"/>
+    </row>
+    <row r="12" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="K12" s="31">
         <v>6</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L12" s="31">
         <v>1</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M12" s="31">
         <v>70</v>
       </c>
-      <c r="T12" s="20" t="s">
+      <c r="T12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="U12" s="22">
+      <c r="U12" s="18">
         <f>IFERROR(AVERAGE($M:$M),"")</f>
         <v>70.400000000000006</v>
       </c>
-      <c r="V12" s="22">
+      <c r="V12" s="18">
         <f>IFERROR(STDEV($M:$M),"")</f>
         <v>6.337449432233953</v>
       </c>
-      <c r="W12" s="77">
+      <c r="W12" s="63">
         <f>IFERROR(COUNT($L:$L),"")</f>
         <v>50</v>
       </c>
-      <c r="X12" s="21">
+      <c r="X12" s="17">
         <f t="shared" si="0"/>
         <v>0.89625069379189271</v>
       </c>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="76"/>
-    </row>
-    <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="167"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="K13" s="39">
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="62"/>
+    </row>
+    <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="K13" s="31">
         <v>7</v>
       </c>
-      <c r="L13" s="39">
+      <c r="L13" s="31">
         <v>1</v>
       </c>
-      <c r="M13" s="39">
+      <c r="M13" s="31">
         <v>73</v>
       </c>
-      <c r="S13" s="2"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="75"/>
-      <c r="Z13" s="75"/>
-    </row>
-    <row r="14" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B14" s="168"/>
-      <c r="C14" s="168"/>
-      <c r="D14" s="168"/>
-      <c r="E14" s="168"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="168"/>
-      <c r="K14" s="39">
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+    </row>
+    <row r="14" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="131"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="131"/>
+      <c r="K14" s="31">
         <v>8</v>
       </c>
-      <c r="L14" s="39">
+      <c r="L14" s="31">
         <v>1</v>
       </c>
-      <c r="M14" s="39">
+      <c r="M14" s="31">
         <v>65</v>
       </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="5" t="s">
+      <c r="T14" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="K15" s="39">
+    <row r="15" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="K15" s="31">
         <v>9</v>
       </c>
-      <c r="L15" s="39">
+      <c r="L15" s="31">
         <v>1</v>
       </c>
-      <c r="M15" s="39">
+      <c r="M15" s="31">
         <v>65</v>
       </c>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="67"/>
-    </row>
-    <row r="16" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B16" s="72" t="s">
+      <c r="Y15" s="60"/>
+      <c r="Z15" s="59"/>
+    </row>
+    <row r="16" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="71"/>
-      <c r="K16" s="39">
+      <c r="C16" s="11"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="61"/>
+      <c r="K16" s="31">
         <v>10</v>
       </c>
-      <c r="L16" s="39">
+      <c r="L16" s="31">
         <v>1</v>
       </c>
-      <c r="M16" s="39">
+      <c r="M16" s="31">
         <v>72</v>
       </c>
-      <c r="S16" s="3"/>
-      <c r="T16" s="23" t="s">
+      <c r="T16" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23">
+      <c r="U16" s="19"/>
+      <c r="V16" s="19">
         <v>1</v>
       </c>
-      <c r="W16" s="23">
+      <c r="W16" s="19">
         <v>2</v>
       </c>
-      <c r="X16" s="23">
+      <c r="X16" s="19">
         <v>3</v>
       </c>
-      <c r="Y16" s="23">
+      <c r="Y16" s="19">
         <v>4</v>
       </c>
-      <c r="Z16" s="23">
+      <c r="Z16" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="K17" s="39">
+    <row r="17" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="K17" s="31">
         <v>11</v>
       </c>
-      <c r="L17" s="39">
+      <c r="L17" s="31">
         <v>2</v>
       </c>
-      <c r="M17" s="39">
+      <c r="M17" s="31">
         <v>69</v>
       </c>
-      <c r="T17" s="115"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="45">
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="37">
         <v>1</v>
       </c>
-      <c r="W17" s="64"/>
-      <c r="X17" s="64"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="63"/>
-    </row>
-    <row r="18" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B18" s="169" t="s">
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="55"/>
+    </row>
+    <row r="18" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="169"/>
-      <c r="D18" s="66" t="s">
+      <c r="C18" s="135"/>
+      <c r="D18" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="60" t="s">
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="K18" s="39">
+      <c r="K18" s="31">
         <v>12</v>
       </c>
-      <c r="L18" s="39">
+      <c r="L18" s="31">
         <v>2</v>
       </c>
-      <c r="M18" s="39">
+      <c r="M18" s="31">
         <v>74</v>
       </c>
-      <c r="T18" s="81"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56">
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48">
         <v>1</v>
       </c>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="55"/>
-    </row>
-    <row r="19" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="160" t="s">
+      <c r="X18" s="51"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="47"/>
+    </row>
+    <row r="19" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="132" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="160"/>
-      <c r="D19" s="162"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="58"/>
-      <c r="K19" s="39">
+      <c r="C19" s="132"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="50"/>
+      <c r="K19" s="31">
         <v>13</v>
       </c>
-      <c r="L19" s="39">
+      <c r="L19" s="31">
         <v>2</v>
       </c>
-      <c r="M19" s="39">
+      <c r="M19" s="31">
         <v>79</v>
       </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="81"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56">
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48">
         <v>1</v>
       </c>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="55"/>
-    </row>
-    <row r="20" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B20" s="157" t="s">
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="47"/>
+    </row>
+    <row r="20" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="124" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="157"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="50"/>
-      <c r="K20" s="39">
+      <c r="C20" s="124"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="42"/>
+      <c r="K20" s="31">
         <v>14</v>
       </c>
-      <c r="L20" s="39">
+      <c r="L20" s="31">
         <v>2</v>
       </c>
-      <c r="M20" s="39">
+      <c r="M20" s="31">
         <v>69</v>
       </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="81"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56">
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="48">
         <v>1</v>
       </c>
-      <c r="Z20" s="55"/>
-    </row>
-    <row r="21" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="K21" s="39">
+      <c r="Z20" s="47"/>
+    </row>
+    <row r="21" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="K21" s="31">
         <v>15</v>
       </c>
-      <c r="L21" s="39">
+      <c r="L21" s="31">
         <v>2</v>
       </c>
-      <c r="M21" s="39">
+      <c r="M21" s="31">
         <v>64</v>
       </c>
-      <c r="S21" s="2"/>
-      <c r="T21" s="116"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="53"/>
-      <c r="Z21" s="53">
+      <c r="T21" s="89"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="45">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B22" s="169" t="str">
+    <row r="22" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="135" t="str">
         <f>IF(B19="","Factor",B19)</f>
         <v>Manipulation</v>
       </c>
-      <c r="C22" s="169"/>
-      <c r="D22" s="61" t="s">
+      <c r="C22" s="135"/>
+      <c r="D22" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="60" t="s">
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="K22" s="39">
+      <c r="K22" s="31">
         <v>16</v>
       </c>
-      <c r="L22" s="39">
+      <c r="L22" s="31">
         <v>2</v>
       </c>
-      <c r="M22" s="39">
+      <c r="M22" s="31">
         <v>64</v>
       </c>
-      <c r="S22" s="2"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
-    </row>
-    <row r="23" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B23" s="160" t="s">
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+    </row>
+    <row r="23" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="132" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="161"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="58">
+      <c r="C23" s="134"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="50">
         <f>IF(B23="","",1)</f>
         <v>1</v>
       </c>
-      <c r="K23" s="39">
+      <c r="K23" s="31">
         <v>17</v>
       </c>
-      <c r="L23" s="39">
+      <c r="L23" s="31">
         <v>2</v>
       </c>
-      <c r="M23" s="39">
+      <c r="M23" s="31">
         <v>69</v>
       </c>
-      <c r="S23" s="2"/>
-      <c r="T23" s="47" t="s">
+      <c r="T23" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="29"/>
-    </row>
-    <row r="24" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B24" s="154" t="s">
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="1"/>
+    </row>
+    <row r="24" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="154"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="52">
+      <c r="C24" s="122"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="44">
         <f>IF(B24="","",2)</f>
         <v>2</v>
       </c>
-      <c r="K24" s="39">
+      <c r="K24" s="31">
         <v>18</v>
       </c>
-      <c r="L24" s="39">
+      <c r="L24" s="31">
         <v>2</v>
       </c>
-      <c r="M24" s="39">
+      <c r="M24" s="31">
         <v>69</v>
       </c>
-      <c r="S24" s="2"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="46"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="46"/>
-      <c r="Z24" s="29"/>
-    </row>
-    <row r="25" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B25" s="154" t="s">
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="1"/>
+    </row>
+    <row r="25" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="154"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="52">
+      <c r="C25" s="122"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="44">
         <f>IF(B25="","",3)</f>
         <v>3</v>
       </c>
-      <c r="K25" s="39">
+      <c r="K25" s="31">
         <v>19</v>
       </c>
-      <c r="L25" s="39">
+      <c r="L25" s="31">
         <v>2</v>
       </c>
-      <c r="M25" s="39">
+      <c r="M25" s="31">
         <v>74</v>
       </c>
-      <c r="S25" s="2"/>
-      <c r="T25" s="26" t="s">
+      <c r="T25" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="U25" s="26" t="s">
+      <c r="U25" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="V25" s="26" t="s">
+      <c r="V25" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="W25" s="26" t="s">
+      <c r="W25" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="X25" s="26" t="s">
+      <c r="X25" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Y25" s="26" t="s">
+      <c r="Y25" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="Z25" s="26" t="s">
+      <c r="Z25" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="154" t="s">
+    <row r="26" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="122" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="154"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="51">
+      <c r="C26" s="122"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="43">
         <f>IF(B26="","",4)</f>
         <v>4</v>
       </c>
-      <c r="K26" s="39">
+      <c r="K26" s="31">
         <v>20</v>
       </c>
-      <c r="L26" s="39">
+      <c r="L26" s="31">
         <v>2</v>
       </c>
-      <c r="M26" s="39">
+      <c r="M26" s="31">
         <v>79</v>
       </c>
-      <c r="T26" s="117" t="s">
+      <c r="T26" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="U26" s="45">
+      <c r="U26" s="37">
         <f t="array" ref="U26">IFERROR(DEVSQ(U7:U11)*(W7:W11),"")</f>
         <v>716.99999999999989</v>
       </c>
-      <c r="V26" s="44">
+      <c r="V26" s="36">
         <f>IFERROR(COUNT(W7:W11)-1,"")</f>
         <v>4</v>
       </c>
-      <c r="W26" s="43">
+      <c r="W26" s="35">
         <f>IFERROR(U26/V26,"")</f>
         <v>179.24999999999997</v>
       </c>
-      <c r="X26" s="43">
+      <c r="X26" s="35">
         <f>IFERROR(W26/W27,"")</f>
         <v>6.4478417266187043</v>
       </c>
-      <c r="Y26" s="43" t="str">
+      <c r="Y26" s="35" t="str">
         <f>IFERROR(IF(FDIST(X26,V26,V27)&lt;0.001,"&lt; 0.001",FDIST(X26,V26,V27)),"")</f>
         <v>&lt; 0.001</v>
       </c>
-      <c r="Z26" s="32">
+      <c r="Z26" s="26">
         <f>IFERROR(U26/U28,"")</f>
         <v>0.36432926829268281</v>
       </c>
     </row>
-    <row r="27" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B27" s="157" t="s">
+    <row r="27" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="124" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="157"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="50">
+      <c r="C27" s="124"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="42">
         <f>IF(B27="","",5)</f>
         <v>5</v>
       </c>
-      <c r="K27" s="39">
+      <c r="K27" s="31">
         <v>21</v>
       </c>
-      <c r="L27" s="39">
+      <c r="L27" s="31">
         <v>3</v>
       </c>
-      <c r="M27" s="39">
+      <c r="M27" s="31">
         <v>70</v>
       </c>
-      <c r="S27" s="3"/>
-      <c r="T27" s="118" t="s">
+      <c r="T27" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="U27" s="8">
+      <c r="U27" s="5">
         <f t="array" ref="U27">SUM(IF(W7:W11&lt;&gt;"",V7:V11^2*((W7:W11)-1),0))</f>
         <v>1251</v>
       </c>
-      <c r="V27" s="9">
+      <c r="V27" s="6">
         <f t="array" ref="V27">SUM(IF(W7:W11&lt;&gt;"",W7:W11-1))</f>
         <v>45</v>
       </c>
-      <c r="W27" s="10">
+      <c r="W27" s="7">
         <f>IFERROR(U27/V27,"")</f>
         <v>27.8</v>
       </c>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="12"/>
-    </row>
-    <row r="28" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="K28" s="39">
+      <c r="X27" s="5"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="9"/>
+    </row>
+    <row r="28" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="K28" s="31">
         <v>22</v>
       </c>
-      <c r="L28" s="39">
+      <c r="L28" s="31">
         <v>3</v>
       </c>
-      <c r="M28" s="39">
+      <c r="M28" s="31">
         <v>75</v>
       </c>
-      <c r="S28" s="3"/>
-      <c r="T28" s="119" t="s">
+      <c r="T28" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="U28" s="41">
+      <c r="U28" s="33">
         <f>IFERROR((V12^2)*(W12-1),"")</f>
         <v>1968.0000000000002</v>
       </c>
-      <c r="V28" s="42">
+      <c r="V28" s="34">
         <f>W12-1</f>
         <v>49</v>
       </c>
-      <c r="W28" s="41">
+      <c r="W28" s="33">
         <f>IFERROR(U28/V28,"")</f>
         <v>40.163265306122454</v>
       </c>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="31"/>
-    </row>
-    <row r="29" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K29" s="39">
+      <c r="X28" s="33"/>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="25"/>
+    </row>
+    <row r="29" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K29" s="31">
         <v>23</v>
       </c>
-      <c r="L29" s="39">
+      <c r="L29" s="31">
         <v>3</v>
       </c>
-      <c r="M29" s="39">
+      <c r="M29" s="31">
         <v>80</v>
       </c>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
-    </row>
-    <row r="30" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K30" s="39">
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="24"/>
+    </row>
+    <row r="30" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K30" s="31">
         <v>24</v>
       </c>
-      <c r="L30" s="39">
+      <c r="L30" s="31">
         <v>3</v>
       </c>
-      <c r="M30" s="39">
+      <c r="M30" s="31">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K31" s="39">
+    <row r="31" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K31" s="31">
         <v>25</v>
       </c>
-      <c r="L31" s="39">
+      <c r="L31" s="31">
         <v>3</v>
       </c>
-      <c r="M31" s="39">
+      <c r="M31" s="31">
         <v>70</v>
       </c>
-      <c r="S31" s="29"/>
-    </row>
-    <row r="32" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K32" s="39">
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K32" s="31">
         <v>26</v>
       </c>
-      <c r="L32" s="39">
+      <c r="L32" s="31">
         <v>3</v>
       </c>
-      <c r="M32" s="39">
+      <c r="M32" s="31">
         <v>65</v>
       </c>
-      <c r="S32" s="29"/>
-    </row>
-    <row r="33" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K33" s="39">
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K33" s="31">
         <v>27</v>
       </c>
-      <c r="L33" s="39">
+      <c r="L33" s="31">
         <v>3</v>
       </c>
-      <c r="M33" s="39">
+      <c r="M33" s="31">
         <v>70</v>
       </c>
-      <c r="S33" s="29"/>
-    </row>
-    <row r="34" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K34" s="39">
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K34" s="31">
         <v>28</v>
       </c>
-      <c r="L34" s="39">
+      <c r="L34" s="31">
         <v>3</v>
       </c>
-      <c r="M34" s="40">
+      <c r="M34" s="32">
         <v>75</v>
       </c>
-      <c r="S34" s="29"/>
-    </row>
-    <row r="35" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K35" s="39">
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K35" s="31">
         <v>29</v>
       </c>
-      <c r="L35" s="39">
+      <c r="L35" s="31">
         <v>3</v>
       </c>
-      <c r="M35" s="39">
+      <c r="M35" s="31">
         <v>70</v>
       </c>
-      <c r="S35" s="29"/>
-    </row>
-    <row r="36" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K36" s="39">
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K36" s="31">
         <v>30</v>
       </c>
-      <c r="L36" s="39">
+      <c r="L36" s="31">
         <v>3</v>
       </c>
-      <c r="M36" s="39">
+      <c r="M36" s="31">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K37" s="39">
+    <row r="37" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K37" s="31">
         <v>31</v>
       </c>
-      <c r="L37" s="39">
+      <c r="L37" s="31">
         <v>4</v>
       </c>
-      <c r="M37" s="39">
+      <c r="M37" s="31">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K38" s="39">
+    <row r="38" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K38" s="31">
         <v>32</v>
       </c>
-      <c r="L38" s="39">
+      <c r="L38" s="31">
         <v>4</v>
       </c>
-      <c r="M38" s="39">
+      <c r="M38" s="31">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K39" s="39">
+    <row r="39" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K39" s="31">
         <v>33</v>
       </c>
-      <c r="L39" s="39">
+      <c r="L39" s="31">
         <v>4</v>
       </c>
-      <c r="M39" s="39">
+      <c r="M39" s="31">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K40" s="39">
+    <row r="40" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K40" s="31">
         <v>34</v>
       </c>
-      <c r="L40" s="39">
+      <c r="L40" s="31">
         <v>4</v>
       </c>
-      <c r="M40" s="39">
+      <c r="M40" s="31">
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K41" s="39">
+    <row r="41" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K41" s="31">
         <v>35</v>
       </c>
-      <c r="L41" s="39">
+      <c r="L41" s="31">
         <v>4</v>
       </c>
-      <c r="M41" s="39">
+      <c r="M41" s="31">
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K42" s="39">
+    <row r="42" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K42" s="31">
         <v>36</v>
       </c>
-      <c r="L42" s="39">
+      <c r="L42" s="31">
         <v>4</v>
       </c>
-      <c r="M42" s="39">
+      <c r="M42" s="31">
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K43" s="39">
+    <row r="43" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K43" s="31">
         <v>37</v>
       </c>
-      <c r="L43" s="39">
+      <c r="L43" s="31">
         <v>4</v>
       </c>
-      <c r="M43" s="39">
+      <c r="M43" s="31">
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K44" s="39">
+    <row r="44" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K44" s="31">
         <v>38</v>
       </c>
-      <c r="L44" s="39">
+      <c r="L44" s="31">
         <v>4</v>
       </c>
-      <c r="M44" s="39">
+      <c r="M44" s="31">
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K45" s="39">
+    <row r="45" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K45" s="31">
         <v>39</v>
       </c>
-      <c r="L45" s="39">
+      <c r="L45" s="31">
         <v>4</v>
       </c>
-      <c r="M45" s="39">
+      <c r="M45" s="31">
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K46" s="39">
+    <row r="46" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K46" s="31">
         <v>40</v>
       </c>
-      <c r="L46" s="39">
+      <c r="L46" s="31">
         <v>4</v>
       </c>
-      <c r="M46" s="39">
+      <c r="M46" s="31">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K47" s="39">
+    <row r="47" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K47" s="31">
         <v>41</v>
       </c>
-      <c r="L47" s="39">
+      <c r="L47" s="31">
         <v>5</v>
       </c>
-      <c r="M47" s="39">
+      <c r="M47" s="31">
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K48" s="39">
+    <row r="48" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K48" s="31">
         <v>42</v>
       </c>
-      <c r="L48" s="39">
+      <c r="L48" s="31">
         <v>5</v>
       </c>
-      <c r="M48" s="39">
+      <c r="M48" s="31">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K49" s="39">
+    <row r="49" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K49" s="31">
         <v>43</v>
       </c>
-      <c r="L49" s="39">
+      <c r="L49" s="31">
         <v>5</v>
       </c>
-      <c r="M49" s="39">
+      <c r="M49" s="31">
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K50" s="39">
+    <row r="50" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K50" s="31">
         <v>44</v>
       </c>
-      <c r="L50" s="39">
+      <c r="L50" s="31">
         <v>5</v>
       </c>
-      <c r="M50" s="39">
+      <c r="M50" s="31">
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K51" s="39">
+    <row r="51" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K51" s="31">
         <v>45</v>
       </c>
-      <c r="L51" s="39">
+      <c r="L51" s="31">
         <v>5</v>
       </c>
-      <c r="M51" s="39">
+      <c r="M51" s="31">
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K52" s="39">
+    <row r="52" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K52" s="31">
         <v>46</v>
       </c>
-      <c r="L52" s="39">
+      <c r="L52" s="31">
         <v>5</v>
       </c>
-      <c r="M52" s="39">
+      <c r="M52" s="31">
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K53" s="39">
+    <row r="53" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K53" s="31">
         <v>47</v>
       </c>
-      <c r="L53" s="39">
+      <c r="L53" s="31">
         <v>5</v>
       </c>
-      <c r="M53" s="39">
+      <c r="M53" s="31">
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K54" s="39">
+    <row r="54" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K54" s="31">
         <v>48</v>
       </c>
-      <c r="L54" s="39">
+      <c r="L54" s="31">
         <v>5</v>
       </c>
-      <c r="M54" s="39">
+      <c r="M54" s="31">
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K55" s="39">
+    <row r="55" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K55" s="31">
         <v>49</v>
       </c>
-      <c r="L55" s="39">
+      <c r="L55" s="31">
         <v>5</v>
       </c>
-      <c r="M55" s="39">
+      <c r="M55" s="31">
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K56" s="39">
+    <row r="56" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K56" s="31">
         <v>50</v>
       </c>
-      <c r="L56" s="39">
+      <c r="L56" s="31">
         <v>5</v>
       </c>
-      <c r="M56" s="39">
+      <c r="M56" s="31">
         <v>70</v>
       </c>
     </row>
@@ -5192,6 +5053,15 @@
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <autoFilter ref="K6:M6" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="21">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="T2:Z2"/>
     <mergeCell ref="K2:Q2"/>
     <mergeCell ref="D25:G25"/>
@@ -5204,15 +5074,6 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.7" bottom="0.7" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5230,1575 +5091,1575 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.578125" style="123" customWidth="1"/>
-    <col min="2" max="8" width="11.15625" style="123"/>
-    <col min="9" max="10" width="4.578125" style="123" customWidth="1"/>
-    <col min="11" max="17" width="11.15625" style="123"/>
-    <col min="18" max="19" width="4.578125" style="123" customWidth="1"/>
-    <col min="20" max="16384" width="11.15625" style="123"/>
+    <col min="1" max="1" width="4.5546875" style="94" customWidth="1"/>
+    <col min="2" max="8" width="11.109375" style="94"/>
+    <col min="9" max="10" width="4.5546875" style="94" customWidth="1"/>
+    <col min="11" max="17" width="11.109375" style="94"/>
+    <col min="18" max="19" width="4.5546875" style="94" customWidth="1"/>
+    <col min="20" max="16384" width="11.109375" style="94"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="171" t="s">
+    <row r="2" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="K2" s="171" t="s">
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="K2" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="171"/>
-      <c r="M2" s="171"/>
-      <c r="N2" s="171"/>
-      <c r="O2" s="171"/>
-      <c r="P2" s="171"/>
-      <c r="Q2" s="171"/>
-    </row>
-    <row r="4" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="124" t="s">
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+    </row>
+    <row r="4" spans="2:17" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="125"/>
-      <c r="G4" s="123" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="96"/>
+      <c r="G4" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="121">
+      <c r="H4" s="92">
         <v>95</v>
       </c>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="124" t="s">
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="123"/>
-      <c r="O4" s="123"/>
-      <c r="P4" s="123"/>
-      <c r="Q4" s="123"/>
-    </row>
-    <row r="5" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
-      <c r="O5" s="123"/>
-      <c r="P5" s="123"/>
-      <c r="Q5" s="123"/>
-    </row>
-    <row r="6" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="127" t="s">
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+    </row>
+    <row r="5" spans="2:17" s="97" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+    </row>
+    <row r="6" spans="2:17" s="97" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="127" t="s">
+      <c r="D6" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="170" t="s">
+      <c r="E6" s="136" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170" t="s">
+      <c r="F6" s="136"/>
+      <c r="G6" s="136" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="170"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="128" t="s">
+      <c r="H6" s="136"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="128" t="s">
+      <c r="L6" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="128" t="s">
+      <c r="M6" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="120" t="s">
+      <c r="N6" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="127" t="s">
+      <c r="O6" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="127" t="s">
+      <c r="P6" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="127" t="s">
+      <c r="Q6" s="98" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="129" t="str">
+    <row r="7" spans="2:17" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="100" t="str">
         <f>IF(C7="","",IF(Data!B23="","1",Data!B23))</f>
         <v>One</v>
       </c>
-      <c r="C7" s="130">
+      <c r="C7" s="101">
         <f>IFERROR(Data!U7,"")</f>
         <v>67</v>
       </c>
-      <c r="D7" s="130">
+      <c r="D7" s="101">
         <f>IF(C7="","",Data!V7)</f>
         <v>4.2946995755750415</v>
       </c>
-      <c r="E7" s="131">
+      <c r="E7" s="102">
         <f>IFERROR(C7-TINV(1-$H$4/100,Data!W7-1)*O7,"")</f>
         <v>63.927756999543114</v>
       </c>
-      <c r="F7" s="131">
+      <c r="F7" s="102">
         <f>IFERROR(C7+TINV(1-$H$4/100,Data!W7-1)*O7,"")</f>
         <v>70.072243000456893</v>
       </c>
-      <c r="G7" s="132">
+      <c r="G7" s="103">
         <f>IFERROR(C7-TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
         <v>64.625407125225294</v>
       </c>
-      <c r="H7" s="132">
+      <c r="H7" s="103">
         <f>IFERROR(C7+TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
         <v>69.374592874774706</v>
       </c>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="133" t="str">
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="104" t="str">
         <f t="shared" ref="K7:K11" si="0">B7</f>
         <v>One</v>
       </c>
-      <c r="L7" s="91">
+      <c r="L7" s="74">
         <v>70</v>
       </c>
-      <c r="M7" s="130">
+      <c r="M7" s="101">
         <f>IFERROR(C7-L7,"")</f>
         <v>-3</v>
       </c>
-      <c r="N7" s="92">
+      <c r="N7" s="75">
         <f>IFERROR(Data!W7-1,"")</f>
         <v>9</v>
       </c>
-      <c r="O7" s="130">
+      <c r="O7" s="101">
         <f>IFERROR(Data!X7,"")</f>
         <v>1.3581032524975574</v>
       </c>
-      <c r="P7" s="130">
+      <c r="P7" s="101">
         <f>IFERROR(M7/O7,"")</f>
         <v>-2.2089631215321721</v>
       </c>
-      <c r="Q7" s="130">
+      <c r="Q7" s="101">
         <f>IFERROR(IF(TDIST(ABS(P7),N7,2)&lt;0.001,"&lt;0.001",TDIST(ABS(P7),N7,2)),"")</f>
         <v>5.4537415263324604E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="133" t="str">
+    <row r="8" spans="2:17" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="104" t="str">
         <f>IF(C8="","",IF(Data!B24="","2",Data!B24))</f>
         <v>Two</v>
       </c>
-      <c r="C8" s="130">
+      <c r="C8" s="101">
         <f>IFERROR(Data!U8,"")</f>
         <v>71</v>
       </c>
-      <c r="D8" s="130">
+      <c r="D8" s="101">
         <f>IF(C8="","",Data!V8)</f>
         <v>5.3748384988656994</v>
       </c>
-      <c r="E8" s="130">
+      <c r="E8" s="101">
         <f>IFERROR(C8-TINV(1-$H$4/100,Data!W8-1)*O8,"")</f>
         <v>67.155072161359428</v>
       </c>
-      <c r="F8" s="130">
+      <c r="F8" s="101">
         <f>IFERROR(C8+TINV(1-$H$4/100,Data!W8-1)*O8,"")</f>
         <v>74.844927838640572</v>
       </c>
-      <c r="G8" s="130">
+      <c r="G8" s="101">
         <f>IFERROR(C8-TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
         <v>68.625407125225294</v>
       </c>
-      <c r="H8" s="130">
+      <c r="H8" s="101">
         <f>IFERROR(C8+TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
         <v>73.374592874774706</v>
       </c>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="130" t="str">
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="101" t="str">
         <f t="shared" si="0"/>
         <v>Two</v>
       </c>
-      <c r="L8" s="91">
+      <c r="L8" s="74">
         <v>70</v>
       </c>
-      <c r="M8" s="130">
+      <c r="M8" s="101">
         <f>IFERROR(C8-L8,"")</f>
         <v>1</v>
       </c>
-      <c r="N8" s="92">
+      <c r="N8" s="75">
         <f>IFERROR(Data!W8-1,"")</f>
         <v>9</v>
       </c>
-      <c r="O8" s="130">
+      <c r="O8" s="101">
         <f>IFERROR(Data!X8,"")</f>
         <v>1.6996731711975948</v>
       </c>
-      <c r="P8" s="130">
+      <c r="P8" s="101">
         <f>IFERROR(M8/O8,"")</f>
         <v>0.58834840541455213</v>
       </c>
-      <c r="Q8" s="130">
+      <c r="Q8" s="101">
         <f>IFERROR(IF(TDIST(ABS(P8),N8,2)&lt;0.001,"&lt;0.001",TDIST(ABS(P8),N8,2)),"")</f>
         <v>0.57076596523986223</v>
       </c>
     </row>
-    <row r="9" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="133" t="str">
+    <row r="9" spans="2:17" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="104" t="str">
         <f>IF(C9="","",IF(Data!B25="","3",Data!B25))</f>
         <v>Three</v>
       </c>
-      <c r="C9" s="130">
+      <c r="C9" s="101">
         <f>IFERROR(Data!U9,"")</f>
         <v>72.5</v>
       </c>
-      <c r="D9" s="130">
+      <c r="D9" s="101">
         <f>IF(C9="","",Data!V9)</f>
         <v>4.85912657903775</v>
       </c>
-      <c r="E9" s="130">
+      <c r="E9" s="101">
         <f>IFERROR(C9-TINV(1-$H$4/100,Data!W9-1)*O9,"")</f>
         <v>69.023990244699732</v>
       </c>
-      <c r="F9" s="130">
+      <c r="F9" s="101">
         <f>IFERROR(C9+TINV(1-$H$4/100,Data!W9-1)*O9,"")</f>
         <v>75.976009755300268</v>
       </c>
-      <c r="G9" s="130">
+      <c r="G9" s="101">
         <f>IFERROR(C9-TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
         <v>70.125407125225294</v>
       </c>
-      <c r="H9" s="130">
+      <c r="H9" s="101">
         <f>IFERROR(C9+TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
         <v>74.874592874774706</v>
       </c>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="130" t="str">
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="101" t="str">
         <f t="shared" si="0"/>
         <v>Three</v>
       </c>
-      <c r="L9" s="91">
+      <c r="L9" s="74">
         <v>70</v>
       </c>
-      <c r="M9" s="130">
+      <c r="M9" s="101">
         <f>IFERROR(C9-L9,"")</f>
         <v>2.5</v>
       </c>
-      <c r="N9" s="92">
+      <c r="N9" s="75">
         <f>IFERROR(Data!W9-1,"")</f>
         <v>9</v>
       </c>
-      <c r="O9" s="130">
+      <c r="O9" s="101">
         <f>IFERROR(Data!X9,"")</f>
         <v>1.5365907428821477</v>
       </c>
-      <c r="P9" s="130">
+      <c r="P9" s="101">
         <f>IFERROR(M9/O9,"")</f>
         <v>1.6269784336399216</v>
       </c>
-      <c r="Q9" s="130">
+      <c r="Q9" s="101">
         <f>IFERROR(IF(TDIST(ABS(P9),N9,2)&lt;0.001,"&lt;0.001",TDIST(ABS(P9),N9,2)),"")</f>
         <v>0.13818475535118313</v>
       </c>
     </row>
-    <row r="10" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="133" t="str">
+    <row r="10" spans="2:17" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="104" t="str">
         <f>IF(C10="","",IF(Data!B26="","4",Data!B26))</f>
         <v>Four</v>
       </c>
-      <c r="C10" s="130">
+      <c r="C10" s="101">
         <f>IFERROR(Data!U10,"")</f>
         <v>76</v>
       </c>
-      <c r="D10" s="130">
+      <c r="D10" s="101">
         <f>IF(C10="","",Data!V10)</f>
         <v>6.5828058860438334</v>
       </c>
-      <c r="E10" s="130">
+      <c r="E10" s="101">
         <f>IFERROR(C10-TINV(1-$H$4/100,Data!W10-1)*O10,"")</f>
         <v>71.290944348754209</v>
       </c>
-      <c r="F10" s="130">
+      <c r="F10" s="101">
         <f>IFERROR(C10+TINV(1-$H$4/100,Data!W10-1)*O10,"")</f>
         <v>80.709055651245791</v>
       </c>
-      <c r="G10" s="130">
+      <c r="G10" s="101">
         <f>IFERROR(C10-TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
         <v>73.625407125225294</v>
       </c>
-      <c r="H10" s="130">
+      <c r="H10" s="101">
         <f>IFERROR(C10+TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
         <v>78.374592874774706</v>
       </c>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="130" t="str">
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="101" t="str">
         <f t="shared" si="0"/>
         <v>Four</v>
       </c>
-      <c r="L10" s="91">
+      <c r="L10" s="74">
         <v>70</v>
       </c>
-      <c r="M10" s="130">
+      <c r="M10" s="101">
         <f>IFERROR(C10-L10,"")</f>
         <v>6</v>
       </c>
-      <c r="N10" s="92">
+      <c r="N10" s="75">
         <f>IFERROR(Data!W10-1,"")</f>
         <v>9</v>
       </c>
-      <c r="O10" s="130">
+      <c r="O10" s="101">
         <f>IFERROR(Data!X10,"")</f>
         <v>2.0816659994661326</v>
       </c>
-      <c r="P10" s="130">
+      <c r="P10" s="101">
         <f>IFERROR(M10/O10,"")</f>
         <v>2.8823067684915684</v>
       </c>
-      <c r="Q10" s="130">
+      <c r="Q10" s="101">
         <f>IFERROR(IF(TDIST(ABS(P10),N10,2)&lt;0.001,"&lt;0.001",TDIST(ABS(P10),N10,2)),"")</f>
         <v>1.8109821663250519E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="147" t="str">
+    <row r="11" spans="2:17" s="97" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="115" t="str">
         <f>IF(C11="","",IF(Data!B27="","5",Data!B27))</f>
         <v>Five</v>
       </c>
-      <c r="C11" s="134">
+      <c r="C11" s="105">
         <f>IFERROR(Data!U11,"")</f>
         <v>65.5</v>
       </c>
-      <c r="D11" s="134">
+      <c r="D11" s="105">
         <f>IF(C11="","",Data!V11)</f>
         <v>4.9721446300587662</v>
       </c>
-      <c r="E11" s="134">
+      <c r="E11" s="105">
         <f>IFERROR(C11-TINV(1-$H$4/100,Data!W11-1)*O11,"")</f>
         <v>61.943142001402506</v>
       </c>
-      <c r="F11" s="134">
+      <c r="F11" s="105">
         <f>IFERROR(C11+TINV(1-$H$4/100,Data!W11-1)*O11,"")</f>
         <v>69.056857998597494</v>
       </c>
-      <c r="G11" s="134">
+      <c r="G11" s="105">
         <f>IFERROR(C11-TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
         <v>63.125407125225294</v>
       </c>
-      <c r="H11" s="134">
+      <c r="H11" s="105">
         <f>IFERROR(C11+TINV(1-$H$4/100,$N$31)*(SQRT(2*$O$31/HARMEAN(Data!$W$7:$W$11)))/2,"")</f>
         <v>67.874592874774706</v>
       </c>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="134" t="str">
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="105" t="str">
         <f t="shared" si="0"/>
         <v>Five</v>
       </c>
-      <c r="L11" s="93">
+      <c r="L11" s="76">
         <v>70</v>
       </c>
-      <c r="M11" s="134">
+      <c r="M11" s="105">
         <f>IFERROR(C11-L11,"")</f>
         <v>-4.5</v>
       </c>
-      <c r="N11" s="94">
+      <c r="N11" s="34">
         <f>IFERROR(Data!W11-1,"")</f>
         <v>9</v>
       </c>
-      <c r="O11" s="134">
+      <c r="O11" s="105">
         <f>IFERROR(Data!X11,"")</f>
         <v>1.5723301886761005</v>
       </c>
-      <c r="P11" s="134">
+      <c r="P11" s="105">
         <f>IFERROR(M11/O11,"")</f>
         <v>-2.8619942760171719</v>
       </c>
-      <c r="Q11" s="134">
+      <c r="Q11" s="105">
         <f>IFERROR(IF(TDIST(ABS(P11),N11,2)&lt;0.001,"&lt;0.001",TDIST(ABS(P11),N11,2)),"")</f>
         <v>1.8719423349875645E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="123"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="123"/>
-      <c r="P12" s="123"/>
-      <c r="Q12" s="123"/>
-    </row>
-    <row r="13" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B13" s="124" t="s">
+    <row r="12" spans="2:17" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+    </row>
+    <row r="13" spans="2:17" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="4" t="s">
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="123"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C15" s="14" t="s">
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+    </row>
+    <row r="14" spans="2:17" s="97" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+    </row>
+    <row r="15" spans="2:17" s="97" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="14" t="s">
+      <c r="F15" s="12"/>
+      <c r="G15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="120" t="s">
+      <c r="H15" s="12"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="23" t="s">
+      <c r="L15" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="M15" s="23" t="s">
+      <c r="M15" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="N15" s="120" t="s">
+      <c r="N15" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="O15" s="23" t="s">
+      <c r="O15" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="P15" s="27" t="s">
+      <c r="P15" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="27" t="s">
+      <c r="Q15" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="13" t="s">
+    <row r="16" spans="2:17" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="113" t="str">
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="87" t="str">
         <f>IF(M16="","","1 vs. 2")</f>
         <v>1 vs. 2</v>
       </c>
-      <c r="L16" s="95"/>
-      <c r="M16" s="96">
+      <c r="L16" s="77"/>
+      <c r="M16" s="35">
         <f>IFERROR(C7-C8-L16,"")</f>
         <v>-4</v>
       </c>
-      <c r="N16" s="98">
+      <c r="N16" s="36">
         <f>IFERROR(Data!W7+Data!W8-2,"")</f>
         <v>18</v>
       </c>
-      <c r="O16" s="96">
+      <c r="O16" s="35">
         <f>IF(M16="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v>2.3579652245103193</v>
       </c>
-      <c r="P16" s="97">
+      <c r="P16" s="78">
         <f t="shared" ref="P16:P25" si="1">IFERROR(M16/O16,"")</f>
         <v>-1.6963778593599417</v>
       </c>
-      <c r="Q16" s="131">
+      <c r="Q16" s="102">
         <f t="shared" ref="Q16:Q25" si="2">IFERROR(IF(TDIST(ABS(P16),N16,2)&lt;0.001,"&lt;0.001",TDIST(ABS(P16),N16,2)),"")</f>
         <v>0.10703969299475195</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="7">
+    <row r="17" spans="1:17" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
         <v>1.1499999999999999</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="4">
         <f>IF(F7="",NA(),F7)</f>
         <v>70.072243000456893</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4">
         <f>IF(H7="",NA(),H7)</f>
         <v>69.374592874774706</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="6">
+      <c r="F17" s="12"/>
+      <c r="G17" s="3">
         <v>0.5</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="3">
         <f>L7</f>
         <v>70</v>
       </c>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="114" t="str">
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="88" t="str">
         <f>IF(M17="","","1 vs. 3")</f>
         <v>1 vs. 3</v>
       </c>
-      <c r="L17" s="99"/>
-      <c r="M17" s="100">
+      <c r="L17" s="79"/>
+      <c r="M17" s="5">
         <f>IFERROR(C7-C9-L17,"")</f>
         <v>-5.5</v>
       </c>
-      <c r="N17" s="92">
+      <c r="N17" s="75">
         <f>IFERROR(Data!W7+Data!W9-2,"")</f>
         <v>18</v>
       </c>
-      <c r="O17" s="100">
+      <c r="O17" s="5">
         <f>IF(M17="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v>2.3579652245103193</v>
       </c>
-      <c r="P17" s="101">
+      <c r="P17" s="80">
         <f t="shared" si="1"/>
         <v>-2.3325195566199199</v>
       </c>
-      <c r="Q17" s="130">
+      <c r="Q17" s="101">
         <f t="shared" si="2"/>
         <v>3.1481211264458582E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="7">
+    <row r="18" spans="1:17" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
         <v>1.1499999999999999</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="3">
         <f>IF(C7="",NA(),C7)</f>
         <v>67</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="6">
+      <c r="D18" s="4"/>
+      <c r="E18" s="3">
         <f>IF(C7="",NA(),C7)</f>
         <v>67</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="6">
+      <c r="F18" s="12"/>
+      <c r="G18" s="3">
         <v>1</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="3">
         <f>L7</f>
         <v>70</v>
       </c>
-      <c r="I18" s="123"/>
-      <c r="J18" s="123"/>
-      <c r="K18" s="114" t="str">
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="88" t="str">
         <f>IF(M18="","","1 vs. 4")</f>
         <v>1 vs. 4</v>
       </c>
-      <c r="L18" s="99"/>
-      <c r="M18" s="100">
+      <c r="L18" s="79"/>
+      <c r="M18" s="5">
         <f>IFERROR(C7-C10-L18,"")</f>
         <v>-9</v>
       </c>
-      <c r="N18" s="92">
+      <c r="N18" s="75">
         <f>IFERROR(Data!W7+Data!W10-2,"")</f>
         <v>18</v>
       </c>
-      <c r="O18" s="100">
+      <c r="O18" s="5">
         <f>IF(M18="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v>2.3579652245103193</v>
       </c>
-      <c r="P18" s="101">
+      <c r="P18" s="80">
         <f t="shared" si="1"/>
         <v>-3.8168501835598692</v>
       </c>
-      <c r="Q18" s="130">
+      <c r="Q18" s="101">
         <f t="shared" si="2"/>
         <v>1.2630601761004217E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="7">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
         <v>1.1499999999999999</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="4">
         <f>IF(E7="",NA(),E7)</f>
         <v>63.927756999543114</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4">
         <f>IF(G7="",NA(),G7)</f>
         <v>64.625407125225294</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="6">
+      <c r="F19" s="12"/>
+      <c r="G19" s="3">
         <v>1.5</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="3">
         <f>L7</f>
         <v>70</v>
       </c>
-      <c r="K19" s="114" t="str">
+      <c r="K19" s="88" t="str">
         <f>IF(M19="","","1 vs. 5")</f>
         <v>1 vs. 5</v>
       </c>
-      <c r="L19" s="99"/>
-      <c r="M19" s="100">
+      <c r="L19" s="79"/>
+      <c r="M19" s="5">
         <f>IFERROR(C7-C11-L19,"")</f>
         <v>1.5</v>
       </c>
-      <c r="N19" s="92">
+      <c r="N19" s="75">
         <f>IFERROR(Data!W7+Data!W11-2,"")</f>
         <v>18</v>
       </c>
-      <c r="O19" s="100">
+      <c r="O19" s="5">
         <f>IF(M19="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v>2.3579652245103193</v>
       </c>
-      <c r="P19" s="101">
+      <c r="P19" s="80">
         <f t="shared" si="1"/>
         <v>0.63614169725997816</v>
       </c>
-      <c r="Q19" s="130">
+      <c r="Q19" s="101">
         <f t="shared" si="2"/>
         <v>0.53269025785809743</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="7">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
         <v>2.15</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="4">
         <f>IF(F8="",NA(),F8)</f>
         <v>74.844927838640572</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4">
         <f>IF(H8="",NA(),H8)</f>
         <v>73.374592874774706</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="6">
+      <c r="F20" s="12"/>
+      <c r="G20" s="3">
         <v>1.5</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="3">
         <f>L8</f>
         <v>70</v>
       </c>
-      <c r="K20" s="114" t="str">
+      <c r="K20" s="88" t="str">
         <f>IF(M20="","","2 vs. 3")</f>
         <v>2 vs. 3</v>
       </c>
-      <c r="L20" s="99"/>
-      <c r="M20" s="100">
+      <c r="L20" s="79"/>
+      <c r="M20" s="5">
         <f>IFERROR(C8-C9-L20,"")</f>
         <v>-1.5</v>
       </c>
-      <c r="N20" s="92">
+      <c r="N20" s="75">
         <f>IFERROR(Data!W8+Data!W9-2,"")</f>
         <v>18</v>
       </c>
-      <c r="O20" s="100">
+      <c r="O20" s="5">
         <f>IF(M20="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v>2.3579652245103193</v>
       </c>
-      <c r="P20" s="101">
+      <c r="P20" s="80">
         <f t="shared" si="1"/>
         <v>-0.63614169725997816</v>
       </c>
-      <c r="Q20" s="130">
+      <c r="Q20" s="101">
         <f t="shared" si="2"/>
         <v>0.53269025785809743</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="7">
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
         <v>2.15</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="3">
         <f>IF(C8="",NA(),C8)</f>
         <v>71</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="6">
+      <c r="D21" s="4"/>
+      <c r="E21" s="3">
         <f>IF(C8="",NA(),C8)</f>
         <v>71</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="6">
+      <c r="F21" s="12"/>
+      <c r="G21" s="3">
         <v>2</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="3">
         <f>L8</f>
         <v>70</v>
       </c>
-      <c r="K21" s="114" t="str">
+      <c r="K21" s="88" t="str">
         <f>IF(M21="","","2 vs. 4")</f>
         <v>2 vs. 4</v>
       </c>
-      <c r="L21" s="99"/>
-      <c r="M21" s="100">
+      <c r="L21" s="79"/>
+      <c r="M21" s="5">
         <f>IFERROR(C8-C10-L21,"")</f>
         <v>-5</v>
       </c>
-      <c r="N21" s="92">
+      <c r="N21" s="75">
         <f>IFERROR(Data!W8+Data!W10-2,"")</f>
         <v>18</v>
       </c>
-      <c r="O21" s="100">
+      <c r="O21" s="5">
         <f>IF(M21="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v>2.3579652245103193</v>
       </c>
-      <c r="P21" s="101">
+      <c r="P21" s="80">
         <f t="shared" si="1"/>
         <v>-2.1204723241999273</v>
       </c>
-      <c r="Q21" s="130">
+      <c r="Q21" s="101">
         <f t="shared" si="2"/>
         <v>4.8117695881367877E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="7">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
         <v>2.15</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="4">
         <f>IF(E8="",NA(),E8)</f>
         <v>67.155072161359428</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4">
         <f>IF(G8="",NA(),G8)</f>
         <v>68.625407125225294</v>
       </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="6">
+      <c r="F22" s="12"/>
+      <c r="G22" s="3">
         <v>2.5</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="3">
         <f>L8</f>
         <v>70</v>
       </c>
-      <c r="K22" s="114" t="str">
+      <c r="K22" s="88" t="str">
         <f>IF(M22="","","2 vs. 5")</f>
         <v>2 vs. 5</v>
       </c>
-      <c r="L22" s="99"/>
-      <c r="M22" s="100">
+      <c r="L22" s="79"/>
+      <c r="M22" s="5">
         <f>IFERROR(C8-C11-L22,"")</f>
         <v>5.5</v>
       </c>
-      <c r="N22" s="92">
+      <c r="N22" s="75">
         <f>IFERROR(Data!W8+Data!W11-2,"")</f>
         <v>18</v>
       </c>
-      <c r="O22" s="100">
+      <c r="O22" s="5">
         <f>IF(M22="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v>2.3579652245103193</v>
       </c>
-      <c r="P22" s="101">
+      <c r="P22" s="80">
         <f t="shared" si="1"/>
         <v>2.3325195566199199</v>
       </c>
-      <c r="Q22" s="130">
+      <c r="Q22" s="101">
         <f t="shared" si="2"/>
         <v>3.1481211264458582E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="7">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
         <v>3.15</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="4">
         <f>IF(F9="",NA(),F9)</f>
         <v>75.976009755300268</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4">
         <f>IF(H9="",NA(),H9)</f>
         <v>74.874592874774706</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="6">
+      <c r="F23" s="12"/>
+      <c r="G23" s="3">
         <v>2.5</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="3">
         <f>L9</f>
         <v>70</v>
       </c>
-      <c r="K23" s="114" t="str">
+      <c r="K23" s="88" t="str">
         <f>IF(M23="","","3 vs. 4")</f>
         <v>3 vs. 4</v>
       </c>
-      <c r="L23" s="99"/>
-      <c r="M23" s="100">
+      <c r="L23" s="79"/>
+      <c r="M23" s="5">
         <f>IFERROR(C9-C10-L23,"")</f>
         <v>-3.5</v>
       </c>
-      <c r="N23" s="92">
+      <c r="N23" s="75">
         <f>IFERROR(Data!W9+Data!W10-2,"")</f>
         <v>18</v>
       </c>
-      <c r="O23" s="100">
+      <c r="O23" s="5">
         <f>IF(M23="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v>2.3579652245103193</v>
       </c>
-      <c r="P23" s="101">
+      <c r="P23" s="80">
         <f t="shared" si="1"/>
         <v>-1.484330626939949</v>
       </c>
-      <c r="Q23" s="130">
+      <c r="Q23" s="101">
         <f t="shared" si="2"/>
         <v>0.15502236496536209</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="7">
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
         <v>3.15</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="3">
         <f>IF(C9="",NA(),C9)</f>
         <v>72.5</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="6">
+      <c r="D24" s="4"/>
+      <c r="E24" s="3">
         <f>IF(C9="",NA(),C9)</f>
         <v>72.5</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="6">
+      <c r="F24" s="12"/>
+      <c r="G24" s="3">
         <v>3</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="3">
         <f>L9</f>
         <v>70</v>
       </c>
-      <c r="K24" s="114" t="str">
+      <c r="K24" s="88" t="str">
         <f>IF(M24="","","3 vs. 5")</f>
         <v>3 vs. 5</v>
       </c>
-      <c r="L24" s="99"/>
-      <c r="M24" s="100">
+      <c r="L24" s="79"/>
+      <c r="M24" s="5">
         <f>IFERROR(C9-C11-L24,"")</f>
         <v>7</v>
       </c>
-      <c r="N24" s="92">
+      <c r="N24" s="75">
         <f>IFERROR(Data!W9+Data!W11-2,"")</f>
         <v>18</v>
       </c>
-      <c r="O24" s="100">
+      <c r="O24" s="5">
         <f>IF(M24="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v>2.3579652245103193</v>
       </c>
-      <c r="P24" s="101">
+      <c r="P24" s="80">
         <f t="shared" si="1"/>
         <v>2.968661253879898</v>
       </c>
-      <c r="Q24" s="130">
+      <c r="Q24" s="101">
         <f t="shared" si="2"/>
         <v>8.2268572219328304E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B25" s="7">
+    <row r="25" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="4">
         <v>3.15</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="4">
         <f>IF(E9="",NA(),E9)</f>
         <v>69.023990244699732</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4">
         <f>IF(G9="",NA(),G9)</f>
         <v>70.125407125225294</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="6">
+      <c r="F25" s="12"/>
+      <c r="G25" s="3">
         <v>3.5</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="3">
         <f>L9</f>
         <v>70</v>
       </c>
-      <c r="K25" s="114" t="str">
+      <c r="K25" s="88" t="str">
         <f>IF(M25="","","4 vs. 5")</f>
         <v>4 vs. 5</v>
       </c>
-      <c r="L25" s="102"/>
-      <c r="M25" s="100">
+      <c r="L25" s="81"/>
+      <c r="M25" s="5">
         <f>IFERROR(C10-C11-L25,"")</f>
         <v>10.5</v>
       </c>
-      <c r="N25" s="94">
+      <c r="N25" s="34">
         <f>IFERROR(Data!W10+Data!W11-2,"")</f>
         <v>18</v>
       </c>
-      <c r="O25" s="103">
+      <c r="O25" s="33">
         <f>IF(M25="","",SQRT(2*$O$31/AVERAGE(Data!$W$7:$W$11)))</f>
         <v>2.3579652245103193</v>
       </c>
-      <c r="P25" s="104">
+      <c r="P25" s="82">
         <f t="shared" si="1"/>
         <v>4.4529918808198472</v>
       </c>
-      <c r="Q25" s="134" t="str">
+      <c r="Q25" s="105" t="str">
         <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="7">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
         <v>4.1500000000000004</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="4">
         <f>IF(F10="",NA(),F10)</f>
         <v>80.709055651245791</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4">
         <f>IF(H10="",NA(),H10)</f>
         <v>78.374592874774706</v>
       </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="6">
+      <c r="F26" s="12"/>
+      <c r="G26" s="3">
         <v>3.5</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="3">
         <f>L10</f>
         <v>70</v>
       </c>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-    </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B27" s="6">
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+    </row>
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="3">
         <v>4.1500000000000004</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="3">
         <f>IF(C10="",NA(),C10)</f>
         <v>76</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="6">
+      <c r="D27" s="4"/>
+      <c r="E27" s="3">
         <f>IF(C10="",NA(),C10)</f>
         <v>76</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="6">
+      <c r="F27" s="12"/>
+      <c r="G27" s="3">
         <v>4</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="3">
         <f>L10</f>
         <v>70</v>
       </c>
-      <c r="K27" s="124" t="s">
+      <c r="K27" s="95" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B28" s="6">
+    <row r="28" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="3">
         <v>4.1500000000000004</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="4">
         <f>IF(E10="",NA(),E10)</f>
         <v>71.290944348754209</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4">
         <f>IF(G10="",NA(),G10)</f>
         <v>73.625407125225294</v>
       </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="6">
+      <c r="F28" s="12"/>
+      <c r="G28" s="3">
         <v>4.5</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="3">
         <f>L10</f>
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B29" s="6">
+    <row r="29" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="3">
         <v>5.15</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="4">
         <f>IF(F11="",NA(),F11)</f>
         <v>69.056857998597494</v>
       </c>
-      <c r="D29" s="135"/>
-      <c r="E29" s="7">
+      <c r="D29" s="106"/>
+      <c r="E29" s="4">
         <f>IF(H11="",NA(),H11)</f>
         <v>67.874592874774706</v>
       </c>
-      <c r="G29" s="135">
+      <c r="G29" s="106">
         <v>4.5</v>
       </c>
-      <c r="H29" s="135">
+      <c r="H29" s="106">
         <f>L11</f>
         <v>70</v>
       </c>
-      <c r="K29" s="136" t="str">
+      <c r="K29" s="107" t="str">
         <f>Data!T25</f>
         <v>Source</v>
       </c>
-      <c r="L29" s="137"/>
-      <c r="M29" s="137" t="str">
+      <c r="L29" s="108"/>
+      <c r="M29" s="108" t="str">
         <f>Data!U25</f>
         <v>SS</v>
       </c>
-      <c r="N29" s="137" t="str">
+      <c r="N29" s="108" t="str">
         <f>Data!V25</f>
         <v>df</v>
       </c>
-      <c r="O29" s="137" t="str">
+      <c r="O29" s="108" t="str">
         <f>Data!W25</f>
         <v>MS</v>
       </c>
-      <c r="P29" s="137" t="str">
+      <c r="P29" s="108" t="str">
         <f>Data!X25</f>
         <v>F</v>
       </c>
-      <c r="Q29" s="137" t="str">
+      <c r="Q29" s="108" t="str">
         <f>Data!Y25</f>
         <v>p</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="6">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="3">
         <v>5.15</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="3">
         <f>IF(C11="",NA(),C11)</f>
         <v>65.5</v>
       </c>
-      <c r="D30" s="135"/>
-      <c r="E30" s="6">
+      <c r="D30" s="106"/>
+      <c r="E30" s="3">
         <f>IF(C11="",NA(),C11)</f>
         <v>65.5</v>
       </c>
-      <c r="G30" s="135">
+      <c r="G30" s="106">
         <v>5</v>
       </c>
-      <c r="H30" s="135">
+      <c r="H30" s="106">
         <f>L11</f>
         <v>70</v>
       </c>
-      <c r="K30" s="138" t="s">
+      <c r="K30" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="L30" s="139"/>
-      <c r="M30" s="139">
+      <c r="L30" s="78"/>
+      <c r="M30" s="78">
         <f>IF(Data!U26&gt;0,Data!U26,"")</f>
         <v>716.99999999999989</v>
       </c>
-      <c r="N30" s="140">
+      <c r="N30" s="110">
         <f>IF(Data!V26&gt;0,Data!V26,"")</f>
         <v>4</v>
       </c>
-      <c r="O30" s="139">
+      <c r="O30" s="78">
         <f>Data!W26</f>
         <v>179.24999999999997</v>
       </c>
-      <c r="P30" s="139">
+      <c r="P30" s="78">
         <f>Data!X26</f>
         <v>6.4478417266187043</v>
       </c>
-      <c r="Q30" s="139" t="str">
+      <c r="Q30" s="78" t="str">
         <f>Data!Y26</f>
         <v>&lt; 0.001</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="3"/>
-      <c r="B31" s="6">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31"/>
+      <c r="B31" s="3">
         <v>5.15</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="4">
         <f>IF(E11="",NA(),E11)</f>
         <v>61.943142001402506</v>
       </c>
-      <c r="D31" s="135"/>
-      <c r="E31" s="7">
+      <c r="D31" s="106"/>
+      <c r="E31" s="4">
         <f>IF(G11="",NA(),G11)</f>
         <v>63.125407125225294</v>
       </c>
-      <c r="G31" s="135">
+      <c r="G31" s="106">
         <v>5.5</v>
       </c>
-      <c r="H31" s="135">
+      <c r="H31" s="106">
         <f>L11</f>
         <v>70</v>
       </c>
-      <c r="K31" s="141" t="s">
+      <c r="K31" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="L31" s="142"/>
-      <c r="M31" s="142">
+      <c r="L31" s="80"/>
+      <c r="M31" s="80">
         <f>IF(Data!U27&gt;0,Data!U27,"")</f>
         <v>1251</v>
       </c>
-      <c r="N31" s="143">
+      <c r="N31" s="112">
         <f>IF(Data!V27&gt;0,Data!V27,"")</f>
         <v>45</v>
       </c>
-      <c r="O31" s="130">
+      <c r="O31" s="101">
         <f>Data!W27</f>
         <v>27.8</v>
       </c>
-      <c r="P31" s="130"/>
-      <c r="Q31" s="142"/>
-    </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="3"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="6"/>
-      <c r="K32" s="144" t="str">
+      <c r="P31" s="101"/>
+      <c r="Q31" s="80"/>
+    </row>
+    <row r="32" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="3"/>
+      <c r="K32" s="113" t="str">
         <f>Data!T28</f>
         <v>Total</v>
       </c>
-      <c r="L32" s="145"/>
-      <c r="M32" s="145">
+      <c r="L32" s="82"/>
+      <c r="M32" s="82">
         <f>Data!U28</f>
         <v>1968.0000000000002</v>
       </c>
-      <c r="N32" s="146">
+      <c r="N32" s="114">
         <f>IF(Data!V28&gt;0,Data!V28,"")</f>
         <v>49</v>
       </c>
-      <c r="O32" s="145">
+      <c r="O32" s="82">
         <f>Data!W28</f>
         <v>40.163265306122454</v>
       </c>
-      <c r="P32" s="145"/>
-      <c r="Q32" s="145"/>
-    </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-    </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-    </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="15"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-    </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="7"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="7"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="7"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="6"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="6"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="6"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-    </row>
-    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="15"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-    </row>
-    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-    </row>
-    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-    </row>
-    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-    </row>
-    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-    </row>
-    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-    </row>
-    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-    </row>
-    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-    </row>
-    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
+      <c r="P32" s="82"/>
+      <c r="Q32" s="82"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="23"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+    </row>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="4"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="4"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="4"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="3"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="3"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+    </row>
+    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="12"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+    </row>
+    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+    </row>
+    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+    </row>
+    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+    </row>
+    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+    </row>
+    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+    </row>
+    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+    </row>
+    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+    </row>
+    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+    </row>
+    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+    </row>
+    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+    </row>
+    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+    </row>
+    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+    </row>
+    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+    </row>
+    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+    </row>
+    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+    </row>
+    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+    </row>
+    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+    </row>
+    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+    </row>
+    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" scenarios="1" selectLockedCells="1"/>

--- a/ARISE/ARISE(D)-OneWay-Wendorf.xlsx
+++ b/ARISE/ARISE(D)-OneWay-Wendorf.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/Research/Statistics/BASE/ARISE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{DCD32313-8B76-407D-8C80-FFCF946ECF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40A9E2EF-BE2E-41E1-B84D-C780421C607E}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{DCD32313-8B76-407D-8C80-FFCF946ECF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F06A2391-B596-4045-B2D3-6DE6F38039DE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -355,19 +355,19 @@
     <t>How to Cite</t>
   </si>
   <si>
-    <t>ARISE: Arelational and Relational Interval Statistics with Excel [Excel Spreadsheet].</t>
-  </si>
-  <si>
-    <t>Version: 2.20200104</t>
-  </si>
-  <si>
     <t>https://cwendorf.github.io/BASE/ARISE</t>
   </si>
   <si>
     <t>http://cwendorf.github.io</t>
   </si>
   <si>
-    <t>Wendorf, C. A. (2020).</t>
+    <t>Version: 2.210601</t>
+  </si>
+  <si>
+    <t>Wendorf, C. A. (2021).</t>
+  </si>
+  <si>
+    <t>ARISE: Arelational and Relational Interval Statistics with Excel [Excel Spreadsheets].</t>
   </si>
 </sst>
 </file>
@@ -3362,8 +3362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3419,7 +3419,7 @@
       <c r="I3" s="116"/>
       <c r="J3" s="116"/>
       <c r="K3" s="119" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L3" s="119"/>
       <c r="M3" s="119"/>
@@ -3442,7 +3442,7 @@
       <c r="I4" s="116"/>
       <c r="J4" s="116"/>
       <c r="K4" s="120" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L4" s="119"/>
       <c r="M4" s="119"/>
@@ -3739,7 +3739,7 @@
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27"/>
       <c r="K26" s="93" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3788,7 +3788,7 @@
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="K30" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3797,7 +3797,7 @@
       </c>
       <c r="C31" s="27"/>
       <c r="K31" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3805,7 +3805,7 @@
         <v>25</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">

--- a/ARISE/ARISE(D)-OneWay-Wendorf.xlsx
+++ b/ARISE/ARISE(D)-OneWay-Wendorf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/Research/Statistics/BASE/ARISE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/ARISE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{DCD32313-8B76-407D-8C80-FFCF946ECF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F06A2391-B596-4045-B2D3-6DE6F38039DE}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{DCD32313-8B76-407D-8C80-FFCF946ECF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7019D972-11C2-415C-ACFC-B3755A9F6005}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="19" r:id="rId1"/>
@@ -1127,14 +1127,14 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1151,6 +1151,18 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -1169,18 +1181,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3040,9 +3040,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3080,9 +3080,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3115,26 +3115,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3167,26 +3150,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3362,7 +3328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
@@ -3812,7 +3778,7 @@
       <c r="K33" s="93"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" selectLockedCells="1"/>
+  <sheetProtection sheet="1"/>
   <mergeCells count="6">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="K2:Q2"/>
@@ -3975,15 +3941,15 @@
       <c r="Z6" s="71"/>
     </row>
     <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="130" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
       <c r="K7" s="32">
         <v>1</v>
       </c>
@@ -4016,13 +3982,13 @@
       <c r="Z7" s="69"/>
     </row>
     <row r="8" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="128"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
       <c r="K8" s="31">
         <v>2</v>
       </c>
@@ -4135,15 +4101,15 @@
       <c r="Z10" s="64"/>
     </row>
     <row r="11" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="129" t="s">
+      <c r="B11" s="132" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
       <c r="K11" s="31">
         <v>5</v>
       </c>
@@ -4176,13 +4142,13 @@
       <c r="Z11" s="64"/>
     </row>
     <row r="12" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
+      <c r="B12" s="133"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
       <c r="K12" s="31">
         <v>6</v>
       </c>
@@ -4215,13 +4181,13 @@
       <c r="Z12" s="62"/>
     </row>
     <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
       <c r="K13" s="31">
         <v>7</v>
       </c>
@@ -4240,13 +4206,13 @@
       <c r="Z13" s="20"/>
     </row>
     <row r="14" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="131"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
       <c r="K14" s="31">
         <v>8</v>
       </c>
@@ -4380,14 +4346,14 @@
       <c r="Z18" s="47"/>
     </row>
     <row r="19" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="132" t="s">
+      <c r="B19" s="127" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="132"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="134"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="128"/>
       <c r="H19" s="50"/>
       <c r="K19" s="31">
         <v>13</v>
@@ -4497,14 +4463,14 @@
       <c r="Z22" s="20"/>
     </row>
     <row r="23" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="132" t="s">
+      <c r="B23" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="134"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="134"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="128"/>
       <c r="H23" s="50">
         <f>IF(B23="","",1)</f>
         <v>1</v>
@@ -4529,13 +4495,13 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="122" t="s">
+      <c r="B24" s="121" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="122"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
       <c r="G24" s="123"/>
       <c r="H24" s="44">
         <f>IF(B24="","",2)</f>
@@ -4559,13 +4525,13 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="122" t="s">
+      <c r="B25" s="121" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="122"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
       <c r="G25" s="123"/>
       <c r="H25" s="44">
         <f>IF(B25="","",3)</f>
@@ -4603,13 +4569,13 @@
       </c>
     </row>
     <row r="26" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="122" t="s">
+      <c r="B26" s="121" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="122"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="122"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
       <c r="G26" s="123"/>
       <c r="H26" s="43">
         <f>IF(B26="","",4)</f>
@@ -5053,15 +5019,6 @@
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <autoFilter ref="K6:M6" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="21">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="B25:C25"/>
     <mergeCell ref="T2:Z2"/>
     <mergeCell ref="K2:Q2"/>
     <mergeCell ref="D25:G25"/>
@@ -5074,6 +5031,15 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.7" bottom="0.7" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ARISE/ARISE(D)-OneWay-Wendorf.xlsx
+++ b/ARISE/ARISE(D)-OneWay-Wendorf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/ARISE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{DCD32313-8B76-407D-8C80-FFCF946ECF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7019D972-11C2-415C-ACFC-B3755A9F6005}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{DCD32313-8B76-407D-8C80-FFCF946ECF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{908D68C5-F24C-4755-A549-9E32CBD1F8FB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -355,19 +355,19 @@
     <t>How to Cite</t>
   </si>
   <si>
-    <t>https://cwendorf.github.io/BASE/ARISE</t>
-  </si>
-  <si>
     <t>http://cwendorf.github.io</t>
   </si>
   <si>
-    <t>Version: 2.210601</t>
-  </si>
-  <si>
     <t>Wendorf, C. A. (2021).</t>
   </si>
   <si>
     <t>ARISE: Arelational and Relational Interval Statistics with Excel [Excel Spreadsheets].</t>
+  </si>
+  <si>
+    <t>https://github.com/cwendorf/BASE/tree/main/ARISE</t>
+  </si>
+  <si>
+    <t>Version: 2.241027</t>
   </si>
 </sst>
 </file>
@@ -3039,6 +3039,10 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -3329,7 +3333,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="K4" sqref="K4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3385,7 +3389,7 @@
       <c r="I3" s="116"/>
       <c r="J3" s="116"/>
       <c r="K3" s="119" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L3" s="119"/>
       <c r="M3" s="119"/>
@@ -3408,7 +3412,7 @@
       <c r="I4" s="116"/>
       <c r="J4" s="116"/>
       <c r="K4" s="120" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L4" s="119"/>
       <c r="M4" s="119"/>
@@ -3705,7 +3709,7 @@
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27"/>
       <c r="K26" s="93" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3754,7 +3758,7 @@
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="K30" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3763,7 +3767,7 @@
       </c>
       <c r="C31" s="27"/>
       <c r="K31" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3771,7 +3775,7 @@
         <v>25</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">

--- a/ARISE/ARISE(D)-OneWay-Wendorf.xlsx
+++ b/ARISE/ARISE(D)-OneWay-Wendorf.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/ARISE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{DCD32313-8B76-407D-8C80-FFCF946ECF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{908D68C5-F24C-4755-A549-9E32CBD1F8FB}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{DCD32313-8B76-407D-8C80-FFCF946ECF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB3BCA6E-E5A4-48C7-B294-2A590DB9604D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3039,10 +3039,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -3333,7 +3329,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:Q4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
